--- a/Mat_Price_Test_Test/5000016/features.xlsx
+++ b/Mat_Price_Test_Test/5000016/features.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G176"/>
+  <dimension ref="A1:V176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,6 +473,81 @@
           <t>Price_Material_var</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EoD_Bestand_noSiBe_log1p</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>DeficitPos_log1p</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>DemandMean_100_log1p</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>DemandMax_100_log1p</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>DemandMean_66_log1p</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>DemandMax_66_log1p</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>DemandMean_50_log1p</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>DemandMax_50_log1p</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>DemandMean_25_log1p</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>DemandMax_25_log1p</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Lag_EoD_Bestand_noSiBe_mean_7Tage</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Lag_EoD_Bestand_noSiBe_mean_28Tage</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Lag_EoD_Bestand_noSiBe_mean_wbzTage</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Lag_EoD_Bestand_noSiBe_mean_2xwbzTage</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>L_WBZ_BlockMinAbs</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -495,7 +570,54 @@
       <c r="F2" t="n">
         <v>28</v>
       </c>
-      <c r="G2" t="inlineStr"/>
+      <c r="G2" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4.375757021660286</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.698480750086059</v>
+      </c>
+      <c r="K2" t="n">
+        <v>5.707110264748875</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.910632943035987</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5.707110264748875</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3.122994053164918</v>
+      </c>
+      <c r="O2" t="n">
+        <v>5.707110264748875</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3.780937598531884</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5.707110264748875</v>
+      </c>
+      <c r="R2" t="n">
+        <v>64.35714285714286</v>
+      </c>
+      <c r="S2" t="n">
+        <v>152.8035714285714</v>
+      </c>
+      <c r="T2" t="n">
+        <v>152.8035714285714</v>
+      </c>
+      <c r="U2" t="n">
+        <v>212.7633928571429</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -518,7 +640,54 @@
       <c r="F3" t="n">
         <v>28</v>
       </c>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4.375757021660286</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.562198324089647</v>
+      </c>
+      <c r="K3" t="n">
+        <v>5.707110264748875</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.910632943035987</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5.707110264748875</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3.122994053164918</v>
+      </c>
+      <c r="O3" t="n">
+        <v>5.707110264748875</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3.780937598531884</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5.707110264748875</v>
+      </c>
+      <c r="R3" t="n">
+        <v>52.42857142857143</v>
+      </c>
+      <c r="S3" t="n">
+        <v>148.5714285714286</v>
+      </c>
+      <c r="T3" t="n">
+        <v>148.5714285714286</v>
+      </c>
+      <c r="U3" t="n">
+        <v>208.6830357142857</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -541,7 +710,54 @@
       <c r="F4" t="n">
         <v>28</v>
       </c>
-      <c r="G4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4.375757021660286</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.562198324089647</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5.707110264748875</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.910632943035987</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5.707110264748875</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3.122994053164918</v>
+      </c>
+      <c r="O4" t="n">
+        <v>5.707110264748875</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3.780937598531884</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5.707110264748875</v>
+      </c>
+      <c r="R4" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>144.3392857142857</v>
+      </c>
+      <c r="T4" t="n">
+        <v>144.3392857142857</v>
+      </c>
+      <c r="U4" t="n">
+        <v>204.6026785714286</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -564,7 +780,54 @@
       <c r="F5" t="n">
         <v>28</v>
       </c>
-      <c r="G5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4.375757021660286</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.562198324089647</v>
+      </c>
+      <c r="K5" t="n">
+        <v>5.707110264748875</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.910632943035987</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5.707110264748875</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3.122994053164918</v>
+      </c>
+      <c r="O5" t="n">
+        <v>5.707110264748875</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.780937598531884</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5.707110264748875</v>
+      </c>
+      <c r="R5" t="n">
+        <v>28.57142857142857</v>
+      </c>
+      <c r="S5" t="n">
+        <v>140.1071428571429</v>
+      </c>
+      <c r="T5" t="n">
+        <v>140.1071428571429</v>
+      </c>
+      <c r="U5" t="n">
+        <v>200.5223214285714</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -587,7 +850,54 @@
       <c r="F6" t="n">
         <v>28</v>
       </c>
-      <c r="G6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4.193586396871749</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.562198324089647</v>
+      </c>
+      <c r="K6" t="n">
+        <v>5.707110264748875</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.910632943035987</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5.707110264748875</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.110335656292995</v>
+      </c>
+      <c r="O6" t="n">
+        <v>5.707110264748875</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.780937598531884</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5.707110264748875</v>
+      </c>
+      <c r="R6" t="n">
+        <v>16.64285714285714</v>
+      </c>
+      <c r="S6" t="n">
+        <v>135.875</v>
+      </c>
+      <c r="T6" t="n">
+        <v>135.875</v>
+      </c>
+      <c r="U6" t="n">
+        <v>196.4419642857143</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -610,7 +920,54 @@
       <c r="F7" t="n">
         <v>28</v>
       </c>
-      <c r="G7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4.193586396871749</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.584644243551988</v>
+      </c>
+      <c r="K7" t="n">
+        <v>5.707110264748875</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.873386211530421</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5.707110264748875</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3.151636517030239</v>
+      </c>
+      <c r="O7" t="n">
+        <v>5.707110264748875</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.061750695363952</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.65605490598383</v>
+      </c>
+      <c r="R7" t="n">
+        <v>45.68</v>
+      </c>
+      <c r="S7" t="n">
+        <v>131.3485714285714</v>
+      </c>
+      <c r="T7" t="n">
+        <v>131.3485714285714</v>
+      </c>
+      <c r="U7" t="n">
+        <v>192.1251785714285</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -633,7 +990,54 @@
       <c r="F8" t="n">
         <v>28</v>
       </c>
-      <c r="G8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4.193586396871749</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.584644243551988</v>
+      </c>
+      <c r="K8" t="n">
+        <v>5.707110264748875</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.873386211530421</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5.707110264748875</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3.151636517030239</v>
+      </c>
+      <c r="O8" t="n">
+        <v>5.707110264748875</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.061750695363952</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.65605490598383</v>
+      </c>
+      <c r="R8" t="n">
+        <v>74.71714285714286</v>
+      </c>
+      <c r="S8" t="n">
+        <v>126.8221428571429</v>
+      </c>
+      <c r="T8" t="n">
+        <v>126.8221428571429</v>
+      </c>
+      <c r="U8" t="n">
+        <v>187.8083928571428</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -656,7 +1060,54 @@
       <c r="F9" t="n">
         <v>28</v>
       </c>
-      <c r="G9" t="inlineStr"/>
+      <c r="G9" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4.193586396871749</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.584644243551988</v>
+      </c>
+      <c r="K9" t="n">
+        <v>5.707110264748875</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2.873386211530421</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5.707110264748875</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.151636517030239</v>
+      </c>
+      <c r="O9" t="n">
+        <v>5.707110264748875</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.061750695363952</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.65605490598383</v>
+      </c>
+      <c r="R9" t="n">
+        <v>72.82571428571428</v>
+      </c>
+      <c r="S9" t="n">
+        <v>122.2957142857143</v>
+      </c>
+      <c r="T9" t="n">
+        <v>122.2957142857143</v>
+      </c>
+      <c r="U9" t="n">
+        <v>183.4916071428572</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -679,7 +1130,54 @@
       <c r="F10" t="n">
         <v>28</v>
       </c>
-      <c r="G10" t="inlineStr"/>
+      <c r="G10" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4.193586396871749</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.584644243551988</v>
+      </c>
+      <c r="K10" t="n">
+        <v>5.707110264748875</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.873386211530421</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5.707110264748875</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3.151636517030239</v>
+      </c>
+      <c r="O10" t="n">
+        <v>5.707110264748875</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.061750695363952</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.65605490598383</v>
+      </c>
+      <c r="R10" t="n">
+        <v>70.93428571428571</v>
+      </c>
+      <c r="S10" t="n">
+        <v>117.7692857142857</v>
+      </c>
+      <c r="T10" t="n">
+        <v>117.7692857142857</v>
+      </c>
+      <c r="U10" t="n">
+        <v>179.1748214285714</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -702,7 +1200,54 @@
       <c r="F11" t="n">
         <v>28</v>
       </c>
-      <c r="G11" t="inlineStr"/>
+      <c r="G11" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4.193586396871749</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.584644243551988</v>
+      </c>
+      <c r="K11" t="n">
+        <v>5.707110264748875</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2.861418620156058</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5.707110264748875</v>
+      </c>
+      <c r="N11" t="n">
+        <v>3.151636517030239</v>
+      </c>
+      <c r="O11" t="n">
+        <v>5.707110264748875</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.061750695363952</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.65605490598383</v>
+      </c>
+      <c r="R11" t="n">
+        <v>69.04285714285713</v>
+      </c>
+      <c r="S11" t="n">
+        <v>113.2428571428571</v>
+      </c>
+      <c r="T11" t="n">
+        <v>113.2428571428571</v>
+      </c>
+      <c r="U11" t="n">
+        <v>174.8580357142857</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -725,7 +1270,54 @@
       <c r="F12" t="n">
         <v>28</v>
       </c>
-      <c r="G12" t="inlineStr"/>
+      <c r="G12" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4.193586396871749</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.584644243551988</v>
+      </c>
+      <c r="K12" t="n">
+        <v>5.707110264748875</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2.861418620156058</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5.707110264748875</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3.151636517030239</v>
+      </c>
+      <c r="O12" t="n">
+        <v>5.707110264748875</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.061750695363952</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.65605490598383</v>
+      </c>
+      <c r="R12" t="n">
+        <v>67.15142857142857</v>
+      </c>
+      <c r="S12" t="n">
+        <v>108.7164285714286</v>
+      </c>
+      <c r="T12" t="n">
+        <v>108.7164285714286</v>
+      </c>
+      <c r="U12" t="n">
+        <v>170.54125</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -748,7 +1340,54 @@
       <c r="F13" t="n">
         <v>28</v>
       </c>
-      <c r="G13" t="inlineStr"/>
+      <c r="G13" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4.193586396871749</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.584644243551988</v>
+      </c>
+      <c r="K13" t="n">
+        <v>5.707110264748875</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2.861418620156058</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5.707110264748875</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3.151636517030239</v>
+      </c>
+      <c r="O13" t="n">
+        <v>5.707110264748875</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.061750695363952</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.65605490598383</v>
+      </c>
+      <c r="R13" t="n">
+        <v>65.25999999999999</v>
+      </c>
+      <c r="S13" t="n">
+        <v>104.19</v>
+      </c>
+      <c r="T13" t="n">
+        <v>104.19</v>
+      </c>
+      <c r="U13" t="n">
+        <v>166.31375</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -771,7 +1410,54 @@
       <c r="F14" t="n">
         <v>28</v>
       </c>
-      <c r="G14" t="inlineStr"/>
+      <c r="G14" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4.193586396871749</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2.584644243551988</v>
+      </c>
+      <c r="K14" t="n">
+        <v>5.707110264748875</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2.861418620156058</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5.707110264748875</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.6656291516660533</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2.65605490598383</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>65.25999999999999</v>
+      </c>
+      <c r="S14" t="n">
+        <v>99.66357142857143</v>
+      </c>
+      <c r="T14" t="n">
+        <v>99.66357142857143</v>
+      </c>
+      <c r="U14" t="n">
+        <v>162.93</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -794,7 +1480,54 @@
       <c r="F15" t="n">
         <v>28</v>
       </c>
-      <c r="G15" t="inlineStr"/>
+      <c r="G15" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4.193586396871749</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.584644243551988</v>
+      </c>
+      <c r="K15" t="n">
+        <v>5.707110264748875</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2.861418620156058</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5.707110264748875</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.6656291516660533</v>
+      </c>
+      <c r="O15" t="n">
+        <v>2.65605490598383</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>65.25999999999999</v>
+      </c>
+      <c r="S15" t="n">
+        <v>95.13714285714286</v>
+      </c>
+      <c r="T15" t="n">
+        <v>95.13714285714286</v>
+      </c>
+      <c r="U15" t="n">
+        <v>159.54625</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -817,7 +1550,54 @@
       <c r="F16" t="n">
         <v>28</v>
       </c>
-      <c r="G16" t="inlineStr"/>
+      <c r="G16" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4.193586396871749</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2.512035317176253</v>
+      </c>
+      <c r="K16" t="n">
+        <v>5.707110264748875</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2.861418620156058</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5.707110264748875</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.6656291516660533</v>
+      </c>
+      <c r="O16" t="n">
+        <v>2.65605490598383</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>65.25999999999999</v>
+      </c>
+      <c r="S16" t="n">
+        <v>91.53928571428571</v>
+      </c>
+      <c r="T16" t="n">
+        <v>91.53928571428571</v>
+      </c>
+      <c r="U16" t="n">
+        <v>156.1625</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -840,7 +1620,54 @@
       <c r="F17" t="n">
         <v>28</v>
       </c>
-      <c r="G17" t="inlineStr"/>
+      <c r="G17" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4.193586396871749</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2.512035317176253</v>
+      </c>
+      <c r="K17" t="n">
+        <v>5.707110264748875</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2.861418620156058</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5.707110264748875</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.6656291516660533</v>
+      </c>
+      <c r="O17" t="n">
+        <v>2.65605490598383</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>65.25999999999999</v>
+      </c>
+      <c r="S17" t="n">
+        <v>87.94142857142856</v>
+      </c>
+      <c r="T17" t="n">
+        <v>87.94142857142856</v>
+      </c>
+      <c r="U17" t="n">
+        <v>152.8635714285714</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -863,7 +1690,54 @@
       <c r="F18" t="n">
         <v>28</v>
       </c>
-      <c r="G18" t="inlineStr"/>
+      <c r="G18" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4.193586396871749</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2.512035317176253</v>
+      </c>
+      <c r="K18" t="n">
+        <v>5.707110264748875</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2.861418620156058</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5.707110264748875</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.6656291516660533</v>
+      </c>
+      <c r="O18" t="n">
+        <v>2.65605490598383</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>65.25999999999999</v>
+      </c>
+      <c r="S18" t="n">
+        <v>84.34357142857142</v>
+      </c>
+      <c r="T18" t="n">
+        <v>84.34357142857142</v>
+      </c>
+      <c r="U18" t="n">
+        <v>149.5646428571429</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -886,7 +1760,54 @@
       <c r="F19" t="n">
         <v>28</v>
       </c>
-      <c r="G19" t="inlineStr"/>
+      <c r="G19" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H19" t="n">
+        <v>4.193586396871749</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2.512035317176253</v>
+      </c>
+      <c r="K19" t="n">
+        <v>5.707110264748875</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.5287689384719874</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2.65605490598383</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.6656291516660533</v>
+      </c>
+      <c r="O19" t="n">
+        <v>2.65605490598383</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>65.25999999999999</v>
+      </c>
+      <c r="S19" t="n">
+        <v>80.74571428571429</v>
+      </c>
+      <c r="T19" t="n">
+        <v>80.74571428571429</v>
+      </c>
+      <c r="U19" t="n">
+        <v>146.2657142857143</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -909,7 +1830,54 @@
       <c r="F20" t="n">
         <v>28</v>
       </c>
-      <c r="G20" t="inlineStr"/>
+      <c r="G20" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H20" t="n">
+        <v>4.193586396871749</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2.50038153186529</v>
+      </c>
+      <c r="K20" t="n">
+        <v>5.707110264748875</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.5287689384719874</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2.65605490598383</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.6656291516660533</v>
+      </c>
+      <c r="O20" t="n">
+        <v>2.65605490598383</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>65.25999999999999</v>
+      </c>
+      <c r="S20" t="n">
+        <v>77.29071428571429</v>
+      </c>
+      <c r="T20" t="n">
+        <v>77.29071428571429</v>
+      </c>
+      <c r="U20" t="n">
+        <v>142.9667857142857</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -932,7 +1900,54 @@
       <c r="F21" t="n">
         <v>28</v>
       </c>
-      <c r="G21" t="inlineStr"/>
+      <c r="G21" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4.193586396871749</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2.50038153186529</v>
+      </c>
+      <c r="K21" t="n">
+        <v>5.707110264748875</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.5287689384719874</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2.65605490598383</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>65.25999999999999</v>
+      </c>
+      <c r="S21" t="n">
+        <v>73.83571428571427</v>
+      </c>
+      <c r="T21" t="n">
+        <v>73.83571428571427</v>
+      </c>
+      <c r="U21" t="n">
+        <v>139.6678571428571</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -955,7 +1970,54 @@
       <c r="F22" t="n">
         <v>28</v>
       </c>
-      <c r="G22" t="inlineStr"/>
+      <c r="G22" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3.695358420211645</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2.50038153186529</v>
+      </c>
+      <c r="K22" t="n">
+        <v>5.707110264748875</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.5287689384719874</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2.65605490598383</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>65.25999999999999</v>
+      </c>
+      <c r="S22" t="n">
+        <v>70.38071428571428</v>
+      </c>
+      <c r="T22" t="n">
+        <v>70.38071428571428</v>
+      </c>
+      <c r="U22" t="n">
+        <v>136.3689285714286</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -978,7 +2040,54 @@
       <c r="F23" t="n">
         <v>28</v>
       </c>
-      <c r="G23" t="inlineStr"/>
+      <c r="G23" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3.695358420211645</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2.573811075100295</v>
+      </c>
+      <c r="K23" t="n">
+        <v>5.707110264748875</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.12013342472199</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3.295836866004329</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1.049822124498678</v>
+      </c>
+      <c r="O23" t="n">
+        <v>3.295836866004329</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.550597412411167</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3.295836866004329</v>
+      </c>
+      <c r="R23" t="n">
+        <v>61.54571428571428</v>
+      </c>
+      <c r="S23" t="n">
+        <v>65.99714285714285</v>
+      </c>
+      <c r="T23" t="n">
+        <v>65.99714285714285</v>
+      </c>
+      <c r="U23" t="n">
+        <v>132.6057142857143</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1001,7 +2110,54 @@
       <c r="F24" t="n">
         <v>28</v>
       </c>
-      <c r="G24" t="inlineStr"/>
+      <c r="G24" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.695358420211645</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2.573811075100295</v>
+      </c>
+      <c r="K24" t="n">
+        <v>5.707110264748875</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.12013342472199</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3.295836866004329</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.049822124498678</v>
+      </c>
+      <c r="O24" t="n">
+        <v>3.295836866004329</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.550597412411167</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3.295836866004329</v>
+      </c>
+      <c r="R24" t="n">
+        <v>57.83142857142856</v>
+      </c>
+      <c r="S24" t="n">
+        <v>61.61357142857143</v>
+      </c>
+      <c r="T24" t="n">
+        <v>61.61357142857143</v>
+      </c>
+      <c r="U24" t="n">
+        <v>128.8425</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1024,7 +2180,54 @@
       <c r="F25" t="n">
         <v>28</v>
       </c>
-      <c r="G25" t="inlineStr"/>
+      <c r="G25" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3.695358420211645</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2.573811075100295</v>
+      </c>
+      <c r="K25" t="n">
+        <v>5.707110264748875</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.12013342472199</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3.295836866004329</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.049822124498678</v>
+      </c>
+      <c r="O25" t="n">
+        <v>3.295836866004329</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.550597412411167</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3.295836866004329</v>
+      </c>
+      <c r="R25" t="n">
+        <v>54.11714285714285</v>
+      </c>
+      <c r="S25" t="n">
+        <v>57.23</v>
+      </c>
+      <c r="T25" t="n">
+        <v>57.23</v>
+      </c>
+      <c r="U25" t="n">
+        <v>125.0792857142857</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1047,7 +2250,54 @@
       <c r="F26" t="n">
         <v>28</v>
       </c>
-      <c r="G26" t="inlineStr"/>
+      <c r="G26" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3.695358420211645</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2.573811075100295</v>
+      </c>
+      <c r="K26" t="n">
+        <v>5.707110264748875</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.8622235106038794</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3.295836866004329</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.049822124498678</v>
+      </c>
+      <c r="O26" t="n">
+        <v>3.295836866004329</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.550597412411167</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>3.295836866004329</v>
+      </c>
+      <c r="R26" t="n">
+        <v>50.40285714285714</v>
+      </c>
+      <c r="S26" t="n">
+        <v>52.84642857142857</v>
+      </c>
+      <c r="T26" t="n">
+        <v>52.84642857142857</v>
+      </c>
+      <c r="U26" t="n">
+        <v>121.3160714285714</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1070,7 +2320,54 @@
       <c r="F27" t="n">
         <v>28</v>
       </c>
-      <c r="G27" t="inlineStr"/>
+      <c r="G27" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.695358420211645</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2.573811075100295</v>
+      </c>
+      <c r="K27" t="n">
+        <v>5.707110264748875</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.8622235106038794</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3.295836866004329</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1.049822124498678</v>
+      </c>
+      <c r="O27" t="n">
+        <v>3.295836866004329</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.550597412411167</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>3.295836866004329</v>
+      </c>
+      <c r="R27" t="n">
+        <v>46.68857142857142</v>
+      </c>
+      <c r="S27" t="n">
+        <v>48.46285714285714</v>
+      </c>
+      <c r="T27" t="n">
+        <v>48.46285714285714</v>
+      </c>
+      <c r="U27" t="n">
+        <v>117.5528571428571</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1093,7 +2390,54 @@
       <c r="F28" t="n">
         <v>28</v>
       </c>
-      <c r="G28" t="inlineStr"/>
+      <c r="G28" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3.695358420211645</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.8760637983652111</v>
+      </c>
+      <c r="K28" t="n">
+        <v>3.295836866004329</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.8622235106038794</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3.295836866004329</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1.049822124498678</v>
+      </c>
+      <c r="O28" t="n">
+        <v>3.295836866004329</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.550597412411167</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>3.295836866004329</v>
+      </c>
+      <c r="R28" t="n">
+        <v>42.97428571428571</v>
+      </c>
+      <c r="S28" t="n">
+        <v>54.79357142857142</v>
+      </c>
+      <c r="T28" t="n">
+        <v>54.79357142857142</v>
+      </c>
+      <c r="U28" t="n">
+        <v>113.7896428571429</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1116,7 +2460,54 @@
       <c r="F29" t="n">
         <v>28</v>
       </c>
-      <c r="G29" t="inlineStr"/>
+      <c r="G29" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3.695358420211645</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.8760637983652111</v>
+      </c>
+      <c r="K29" t="n">
+        <v>3.295836866004329</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.8622235106038794</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3.295836866004329</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1.049822124498678</v>
+      </c>
+      <c r="O29" t="n">
+        <v>3.295836866004329</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.550597412411167</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3.295836866004329</v>
+      </c>
+      <c r="R29" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="S29" t="n">
+        <v>61.1242857142857</v>
+      </c>
+      <c r="T29" t="n">
+        <v>61.1242857142857</v>
+      </c>
+      <c r="U29" t="n">
+        <v>110.0264285714286</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1139,7 +2530,54 @@
       <c r="F30" t="n">
         <v>28</v>
       </c>
-      <c r="G30" t="inlineStr"/>
+      <c r="G30" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3.695358420211645</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.8760637983652111</v>
+      </c>
+      <c r="K30" t="n">
+        <v>3.295836866004329</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.8622235106038794</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3.295836866004329</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1.049822124498678</v>
+      </c>
+      <c r="O30" t="n">
+        <v>3.295836866004329</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="S30" t="n">
+        <v>59.72285714285714</v>
+      </c>
+      <c r="T30" t="n">
+        <v>59.72285714285714</v>
+      </c>
+      <c r="U30" t="n">
+        <v>106.2632142857143</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1162,7 +2600,54 @@
       <c r="F31" t="n">
         <v>28</v>
       </c>
-      <c r="G31" t="inlineStr"/>
+      <c r="G31" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.695358420211645</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.8760637983652111</v>
+      </c>
+      <c r="K31" t="n">
+        <v>3.295836866004329</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.8622235106038794</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3.295836866004329</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1.049822124498678</v>
+      </c>
+      <c r="O31" t="n">
+        <v>3.295836866004329</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="S31" t="n">
+        <v>58.32142857142856</v>
+      </c>
+      <c r="T31" t="n">
+        <v>58.32142857142856</v>
+      </c>
+      <c r="U31" t="n">
+        <v>103.4464285714286</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1185,7 +2670,54 @@
       <c r="F32" t="n">
         <v>28</v>
       </c>
-      <c r="G32" t="inlineStr"/>
+      <c r="G32" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3.695358420211645</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.8760637983652111</v>
+      </c>
+      <c r="K32" t="n">
+        <v>3.295836866004329</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.8622235106038794</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3.295836866004329</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1.049822124498678</v>
+      </c>
+      <c r="O32" t="n">
+        <v>3.295836866004329</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="S32" t="n">
+        <v>56.91999999999999</v>
+      </c>
+      <c r="T32" t="n">
+        <v>56.91999999999999</v>
+      </c>
+      <c r="U32" t="n">
+        <v>100.6296428571429</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1208,7 +2740,54 @@
       <c r="F33" t="n">
         <v>28</v>
       </c>
-      <c r="G33" t="inlineStr"/>
+      <c r="G33" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H33" t="n">
+        <v>3.695358420211645</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.8760637983652111</v>
+      </c>
+      <c r="K33" t="n">
+        <v>3.295836866004329</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.8622235106038794</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3.295836866004329</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1.049822124498678</v>
+      </c>
+      <c r="O33" t="n">
+        <v>3.295836866004329</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="S33" t="n">
+        <v>55.51857142857142</v>
+      </c>
+      <c r="T33" t="n">
+        <v>55.51857142857142</v>
+      </c>
+      <c r="U33" t="n">
+        <v>97.81285714285714</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1231,7 +2810,54 @@
       <c r="F34" t="n">
         <v>28</v>
       </c>
-      <c r="G34" t="inlineStr"/>
+      <c r="G34" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3.695358420211645</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.8760637983652111</v>
+      </c>
+      <c r="K34" t="n">
+        <v>3.295836866004329</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.8622235106038794</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3.295836866004329</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1.049822124498678</v>
+      </c>
+      <c r="O34" t="n">
+        <v>3.295836866004329</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="S34" t="n">
+        <v>54.11714285714285</v>
+      </c>
+      <c r="T34" t="n">
+        <v>54.11714285714285</v>
+      </c>
+      <c r="U34" t="n">
+        <v>94.99607142857143</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1254,7 +2880,54 @@
       <c r="F35" t="n">
         <v>28</v>
       </c>
-      <c r="G35" t="inlineStr"/>
+      <c r="G35" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H35" t="n">
+        <v>3.695358420211645</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.6567795363890705</v>
+      </c>
+      <c r="K35" t="n">
+        <v>3.295836866004329</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.8622235106038794</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3.295836866004329</v>
+      </c>
+      <c r="N35" t="n">
+        <v>1.049822124498678</v>
+      </c>
+      <c r="O35" t="n">
+        <v>3.295836866004329</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="S35" t="n">
+        <v>53.18857142857142</v>
+      </c>
+      <c r="T35" t="n">
+        <v>53.18857142857142</v>
+      </c>
+      <c r="U35" t="n">
+        <v>92.26857142857143</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1277,7 +2950,54 @@
       <c r="F36" t="n">
         <v>28</v>
       </c>
-      <c r="G36" t="inlineStr"/>
+      <c r="G36" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H36" t="n">
+        <v>3.695358420211645</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.6567795363890705</v>
+      </c>
+      <c r="K36" t="n">
+        <v>3.295836866004329</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.8622235106038794</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3.295836866004329</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1.049822124498678</v>
+      </c>
+      <c r="O36" t="n">
+        <v>3.295836866004329</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="S36" t="n">
+        <v>52.25999999999999</v>
+      </c>
+      <c r="T36" t="n">
+        <v>52.25999999999999</v>
+      </c>
+      <c r="U36" t="n">
+        <v>89.54107142857141</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1300,7 +3020,54 @@
       <c r="F37" t="n">
         <v>28</v>
       </c>
-      <c r="G37" t="inlineStr"/>
+      <c r="G37" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H37" t="n">
+        <v>3.695358420211645</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.6567795363890705</v>
+      </c>
+      <c r="K37" t="n">
+        <v>3.295836866004329</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.8622235106038794</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3.295836866004329</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="S37" t="n">
+        <v>51.33142857142856</v>
+      </c>
+      <c r="T37" t="n">
+        <v>51.33142857142856</v>
+      </c>
+      <c r="U37" t="n">
+        <v>86.81357142857142</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1323,7 +3090,54 @@
       <c r="F38" t="n">
         <v>28</v>
       </c>
-      <c r="G38" t="inlineStr"/>
+      <c r="G38" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H38" t="n">
+        <v>3.695358420211645</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.6567795363890705</v>
+      </c>
+      <c r="K38" t="n">
+        <v>3.295836866004329</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.8622235106038794</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3.295836866004329</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="S38" t="n">
+        <v>50.40285714285714</v>
+      </c>
+      <c r="T38" t="n">
+        <v>50.40285714285714</v>
+      </c>
+      <c r="U38" t="n">
+        <v>84.08607142857143</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1346,7 +3160,54 @@
       <c r="F39" t="n">
         <v>28</v>
       </c>
-      <c r="G39" t="inlineStr"/>
+      <c r="G39" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H39" t="n">
+        <v>3.695358420211645</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.6567795363890705</v>
+      </c>
+      <c r="K39" t="n">
+        <v>3.295836866004329</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.8622235106038794</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3.295836866004329</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="S39" t="n">
+        <v>49.47428571428571</v>
+      </c>
+      <c r="T39" t="n">
+        <v>49.47428571428571</v>
+      </c>
+      <c r="U39" t="n">
+        <v>81.35857142857142</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1369,7 +3230,54 @@
       <c r="F40" t="n">
         <v>28</v>
       </c>
-      <c r="G40" t="inlineStr"/>
+      <c r="G40" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H40" t="n">
+        <v>3.695358420211645</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.6567795363890705</v>
+      </c>
+      <c r="K40" t="n">
+        <v>3.295836866004329</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.8622235106038794</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3.295836866004329</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="S40" t="n">
+        <v>48.54571428571428</v>
+      </c>
+      <c r="T40" t="n">
+        <v>48.54571428571428</v>
+      </c>
+      <c r="U40" t="n">
+        <v>78.63107142857143</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1392,7 +3300,54 @@
       <c r="F41" t="n">
         <v>28</v>
       </c>
-      <c r="G41" t="inlineStr"/>
+      <c r="G41" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H41" t="n">
+        <v>3.695358420211645</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.6567795363890705</v>
+      </c>
+      <c r="K41" t="n">
+        <v>3.295836866004329</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.8622235106038794</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3.295836866004329</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="S41" t="n">
+        <v>47.61714285714285</v>
+      </c>
+      <c r="T41" t="n">
+        <v>47.61714285714285</v>
+      </c>
+      <c r="U41" t="n">
+        <v>75.90357142857142</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1415,7 +3370,54 @@
       <c r="F42" t="n">
         <v>28</v>
       </c>
-      <c r="G42" t="inlineStr"/>
+      <c r="G42" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H42" t="n">
+        <v>3.695358420211645</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.6567795363890705</v>
+      </c>
+      <c r="K42" t="n">
+        <v>3.295836866004329</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="S42" t="n">
+        <v>46.68857142857142</v>
+      </c>
+      <c r="T42" t="n">
+        <v>46.68857142857142</v>
+      </c>
+      <c r="U42" t="n">
+        <v>73.17607142857142</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1438,7 +3440,54 @@
       <c r="F43" t="n">
         <v>28</v>
       </c>
-      <c r="G43" t="inlineStr"/>
+      <c r="G43" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H43" t="n">
+        <v>3.695358420211645</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.6567795363890705</v>
+      </c>
+      <c r="K43" t="n">
+        <v>3.295836866004329</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="S43" t="n">
+        <v>45.75999999999999</v>
+      </c>
+      <c r="T43" t="n">
+        <v>45.75999999999999</v>
+      </c>
+      <c r="U43" t="n">
+        <v>70.44857142857143</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1461,7 +3510,54 @@
       <c r="F44" t="n">
         <v>28</v>
       </c>
-      <c r="G44" t="inlineStr"/>
+      <c r="G44" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H44" t="n">
+        <v>3.695358420211645</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.6567795363890705</v>
+      </c>
+      <c r="K44" t="n">
+        <v>3.295836866004329</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="S44" t="n">
+        <v>44.83142857142856</v>
+      </c>
+      <c r="T44" t="n">
+        <v>44.83142857142856</v>
+      </c>
+      <c r="U44" t="n">
+        <v>68.18535714285714</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1484,7 +3580,54 @@
       <c r="F45" t="n">
         <v>28</v>
       </c>
-      <c r="G45" t="inlineStr"/>
+      <c r="G45" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H45" t="n">
+        <v>3.695358420211645</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.6567795363890705</v>
+      </c>
+      <c r="K45" t="n">
+        <v>3.295836866004329</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="S45" t="n">
+        <v>43.90285714285714</v>
+      </c>
+      <c r="T45" t="n">
+        <v>43.90285714285714</v>
+      </c>
+      <c r="U45" t="n">
+        <v>65.92214285714284</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1507,7 +3650,54 @@
       <c r="F46" t="n">
         <v>28</v>
       </c>
-      <c r="G46" t="inlineStr"/>
+      <c r="G46" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H46" t="n">
+        <v>3.695358420211645</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.6567795363890705</v>
+      </c>
+      <c r="K46" t="n">
+        <v>3.295836866004329</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="S46" t="n">
+        <v>42.97428571428571</v>
+      </c>
+      <c r="T46" t="n">
+        <v>42.97428571428571</v>
+      </c>
+      <c r="U46" t="n">
+        <v>63.65892857142857</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1530,7 +3720,54 @@
       <c r="F47" t="n">
         <v>28</v>
       </c>
-      <c r="G47" t="inlineStr"/>
+      <c r="G47" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H47" t="n">
+        <v>3.695358420211645</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.6567795363890705</v>
+      </c>
+      <c r="K47" t="n">
+        <v>3.295836866004329</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
+      <c r="R47" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="S47" t="n">
+        <v>42.04571428571428</v>
+      </c>
+      <c r="T47" t="n">
+        <v>42.04571428571428</v>
+      </c>
+      <c r="U47" t="n">
+        <v>61.39571428571428</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1553,7 +3790,54 @@
       <c r="F48" t="n">
         <v>28</v>
       </c>
-      <c r="G48" t="inlineStr"/>
+      <c r="G48" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H48" t="n">
+        <v>3.695358420211645</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.6567795363890705</v>
+      </c>
+      <c r="K48" t="n">
+        <v>3.295836866004329</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="S48" t="n">
+        <v>41.11714285714285</v>
+      </c>
+      <c r="T48" t="n">
+        <v>41.11714285714285</v>
+      </c>
+      <c r="U48" t="n">
+        <v>59.20392857142856</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1576,7 +3860,54 @@
       <c r="F49" t="n">
         <v>28</v>
       </c>
-      <c r="G49" t="inlineStr"/>
+      <c r="G49" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H49" t="n">
+        <v>3.695358420211645</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.6567795363890705</v>
+      </c>
+      <c r="K49" t="n">
+        <v>3.295836866004329</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="S49" t="n">
+        <v>40.18857142857142</v>
+      </c>
+      <c r="T49" t="n">
+        <v>40.18857142857142</v>
+      </c>
+      <c r="U49" t="n">
+        <v>57.01214285714285</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1599,7 +3930,54 @@
       <c r="F50" t="n">
         <v>28</v>
       </c>
-      <c r="G50" t="inlineStr"/>
+      <c r="G50" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H50" t="n">
+        <v>3.695358420211645</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.6567795363890705</v>
+      </c>
+      <c r="K50" t="n">
+        <v>3.295836866004329</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
+      <c r="R50" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="S50" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="T50" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="U50" t="n">
+        <v>54.82035714285713</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1622,7 +4000,54 @@
       <c r="F51" t="n">
         <v>28</v>
       </c>
-      <c r="G51" t="inlineStr"/>
+      <c r="G51" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H51" t="n">
+        <v>3.695358420211645</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
+      <c r="R51" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="S51" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="T51" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="U51" t="n">
+        <v>52.62857142857143</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1645,7 +4070,54 @@
       <c r="F52" t="n">
         <v>28</v>
       </c>
-      <c r="G52" t="inlineStr"/>
+      <c r="G52" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H52" t="n">
+        <v>3.695358420211645</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="S52" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="T52" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="U52" t="n">
+        <v>50.4367857142857</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1668,7 +4140,54 @@
       <c r="F53" t="n">
         <v>28</v>
       </c>
-      <c r="G53" t="inlineStr"/>
+      <c r="G53" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H53" t="n">
+        <v>3.695358420211645</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
+      <c r="R53" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="S53" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="T53" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="U53" t="n">
+        <v>48.24499999999999</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1691,7 +4210,54 @@
       <c r="F54" t="n">
         <v>28</v>
       </c>
-      <c r="G54" t="inlineStr"/>
+      <c r="G54" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H54" t="n">
+        <v>3.695358420211645</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
+      <c r="R54" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="S54" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="T54" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="U54" t="n">
+        <v>46.05321428571428</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1714,7 +4280,54 @@
       <c r="F55" t="n">
         <v>28</v>
       </c>
-      <c r="G55" t="inlineStr"/>
+      <c r="G55" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H55" t="n">
+        <v>3.695358420211645</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
+      <c r="R55" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="S55" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="T55" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="U55" t="n">
+        <v>43.86142857142857</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1737,7 +4350,54 @@
       <c r="F56" t="n">
         <v>28</v>
       </c>
-      <c r="G56" t="inlineStr"/>
+      <c r="G56" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H56" t="n">
+        <v>3.695358420211645</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="S56" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="T56" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="U56" t="n">
+        <v>47.02678571428571</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1760,7 +4420,54 @@
       <c r="F57" t="n">
         <v>28</v>
       </c>
-      <c r="G57" t="inlineStr"/>
+      <c r="G57" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H57" t="n">
+        <v>3.695358420211645</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
+      <c r="R57" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="S57" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="T57" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="U57" t="n">
+        <v>50.19214285714285</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1783,7 +4490,54 @@
       <c r="F58" t="n">
         <v>28</v>
       </c>
-      <c r="G58" t="inlineStr"/>
+      <c r="G58" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H58" t="n">
+        <v>3.695358420211645</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="S58" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="T58" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="U58" t="n">
+        <v>49.49142857142856</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1806,7 +4560,54 @@
       <c r="F59" t="n">
         <v>28</v>
       </c>
-      <c r="G59" t="inlineStr"/>
+      <c r="G59" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H59" t="n">
+        <v>3.695358420211645</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
+      <c r="R59" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="S59" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="T59" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="U59" t="n">
+        <v>48.79071428571428</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1829,7 +4630,54 @@
       <c r="F60" t="n">
         <v>28</v>
       </c>
-      <c r="G60" t="inlineStr"/>
+      <c r="G60" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H60" t="n">
+        <v>3.695358420211645</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
+      <c r="R60" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="S60" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="T60" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="U60" t="n">
+        <v>48.08999999999999</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1852,7 +4700,54 @@
       <c r="F61" t="n">
         <v>28</v>
       </c>
-      <c r="G61" t="inlineStr"/>
+      <c r="G61" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H61" t="n">
+        <v>3.695358420211645</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
+      <c r="R61" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="S61" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="T61" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="U61" t="n">
+        <v>47.3892857142857</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1875,7 +4770,54 @@
       <c r="F62" t="n">
         <v>28</v>
       </c>
-      <c r="G62" t="inlineStr"/>
+      <c r="G62" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H62" t="n">
+        <v>3.695358420211645</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
+      <c r="R62" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="S62" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="T62" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="U62" t="n">
+        <v>46.68857142857142</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1898,7 +4840,54 @@
       <c r="F63" t="n">
         <v>28</v>
       </c>
-      <c r="G63" t="inlineStr"/>
+      <c r="G63" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H63" t="n">
+        <v>3.695358420211645</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
+      <c r="R63" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="S63" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="T63" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="U63" t="n">
+        <v>46.22428571428571</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1921,7 +4910,54 @@
       <c r="F64" t="n">
         <v>28</v>
       </c>
-      <c r="G64" t="inlineStr"/>
+      <c r="G64" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H64" t="n">
+        <v>3.695358420211645</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
+      <c r="R64" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="S64" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="T64" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="U64" t="n">
+        <v>45.75999999999999</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1944,7 +4980,54 @@
       <c r="F65" t="n">
         <v>28</v>
       </c>
-      <c r="G65" t="inlineStr"/>
+      <c r="G65" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H65" t="n">
+        <v>3.695358420211645</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0</v>
+      </c>
+      <c r="R65" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="S65" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="T65" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="U65" t="n">
+        <v>45.29571428571428</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1967,7 +5050,54 @@
       <c r="F66" t="n">
         <v>28</v>
       </c>
-      <c r="G66" t="inlineStr"/>
+      <c r="G66" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H66" t="n">
+        <v>3.695358420211645</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
+      <c r="R66" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="S66" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="T66" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="U66" t="n">
+        <v>44.83142857142856</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1990,7 +5120,54 @@
       <c r="F67" t="n">
         <v>28</v>
       </c>
-      <c r="G67" t="inlineStr"/>
+      <c r="G67" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H67" t="n">
+        <v>3.695358420211645</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
+      <c r="R67" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="S67" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="T67" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="U67" t="n">
+        <v>44.36714285714285</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2013,7 +5190,54 @@
       <c r="F68" t="n">
         <v>28</v>
       </c>
-      <c r="G68" t="inlineStr"/>
+      <c r="G68" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H68" t="n">
+        <v>3.695358420211645</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0</v>
+      </c>
+      <c r="R68" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="S68" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="T68" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="U68" t="n">
+        <v>43.90285714285714</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2036,7 +5260,54 @@
       <c r="F69" t="n">
         <v>28</v>
       </c>
-      <c r="G69" t="inlineStr"/>
+      <c r="G69" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H69" t="n">
+        <v>3.695358420211645</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0</v>
+      </c>
+      <c r="R69" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="S69" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="T69" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="U69" t="n">
+        <v>43.43857142857142</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2059,7 +5330,54 @@
       <c r="F70" t="n">
         <v>28</v>
       </c>
-      <c r="G70" t="inlineStr"/>
+      <c r="G70" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H70" t="n">
+        <v>3.695358420211645</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0</v>
+      </c>
+      <c r="R70" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="S70" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="T70" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="U70" t="n">
+        <v>42.97428571428571</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2082,7 +5400,54 @@
       <c r="F71" t="n">
         <v>28</v>
       </c>
-      <c r="G71" t="inlineStr"/>
+      <c r="G71" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H71" t="n">
+        <v>3.695358420211645</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0</v>
+      </c>
+      <c r="R71" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="S71" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="T71" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="U71" t="n">
+        <v>42.50999999999999</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2105,7 +5470,54 @@
       <c r="F72" t="n">
         <v>28</v>
       </c>
-      <c r="G72" t="inlineStr"/>
+      <c r="G72" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H72" t="n">
+        <v>3.695358420211645</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0</v>
+      </c>
+      <c r="R72" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="S72" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="T72" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="U72" t="n">
+        <v>42.04571428571428</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2128,7 +5540,54 @@
       <c r="F73" t="n">
         <v>28</v>
       </c>
-      <c r="G73" t="inlineStr"/>
+      <c r="G73" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H73" t="n">
+        <v>3.695358420211645</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0</v>
+      </c>
+      <c r="R73" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="S73" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="T73" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="U73" t="n">
+        <v>41.58142857142856</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2151,7 +5610,54 @@
       <c r="F74" t="n">
         <v>28</v>
       </c>
-      <c r="G74" t="inlineStr"/>
+      <c r="G74" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H74" t="n">
+        <v>3.695358420211645</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0</v>
+      </c>
+      <c r="R74" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="S74" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="T74" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="U74" t="n">
+        <v>41.11714285714285</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2174,7 +5680,54 @@
       <c r="F75" t="n">
         <v>28</v>
       </c>
-      <c r="G75" t="inlineStr"/>
+      <c r="G75" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H75" t="n">
+        <v>3.695358420211645</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0</v>
+      </c>
+      <c r="R75" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="S75" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="T75" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="U75" t="n">
+        <v>40.65285714285714</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2197,7 +5750,54 @@
       <c r="F76" t="n">
         <v>28</v>
       </c>
-      <c r="G76" t="inlineStr"/>
+      <c r="G76" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H76" t="n">
+        <v>3.695358420211645</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0</v>
+      </c>
+      <c r="R76" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="S76" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="T76" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="U76" t="n">
+        <v>40.18857142857142</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2220,7 +5820,54 @@
       <c r="F77" t="n">
         <v>28</v>
       </c>
-      <c r="G77" t="inlineStr"/>
+      <c r="G77" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H77" t="n">
+        <v>3.695358420211645</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0</v>
+      </c>
+      <c r="P77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0</v>
+      </c>
+      <c r="R77" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="S77" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="T77" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="U77" t="n">
+        <v>39.72428571428571</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2243,7 +5890,54 @@
       <c r="F78" t="n">
         <v>28</v>
       </c>
-      <c r="G78" t="inlineStr"/>
+      <c r="G78" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H78" t="n">
+        <v>3.695358420211645</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0</v>
+      </c>
+      <c r="R78" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="S78" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="T78" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="U78" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2266,7 +5960,54 @@
       <c r="F79" t="n">
         <v>28</v>
       </c>
-      <c r="G79" t="inlineStr"/>
+      <c r="G79" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H79" t="n">
+        <v>3.695358420211645</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>0</v>
+      </c>
+      <c r="R79" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="S79" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="T79" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="U79" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2289,7 +6030,54 @@
       <c r="F80" t="n">
         <v>28</v>
       </c>
-      <c r="G80" t="inlineStr"/>
+      <c r="G80" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H80" t="n">
+        <v>3.695358420211645</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0</v>
+      </c>
+      <c r="P80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0</v>
+      </c>
+      <c r="R80" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="S80" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="T80" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="U80" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2312,7 +6100,54 @@
       <c r="F81" t="n">
         <v>28</v>
       </c>
-      <c r="G81" t="inlineStr"/>
+      <c r="G81" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H81" t="n">
+        <v>3.695358420211645</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0</v>
+      </c>
+      <c r="P81" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0</v>
+      </c>
+      <c r="R81" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="S81" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="T81" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="U81" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2335,7 +6170,54 @@
       <c r="F82" t="n">
         <v>28</v>
       </c>
-      <c r="G82" t="inlineStr"/>
+      <c r="G82" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H82" t="n">
+        <v>3.695358420211645</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0</v>
+      </c>
+      <c r="P82" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0</v>
+      </c>
+      <c r="R82" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="S82" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="T82" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="U82" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2358,7 +6240,54 @@
       <c r="F83" t="n">
         <v>28</v>
       </c>
-      <c r="G83" t="inlineStr"/>
+      <c r="G83" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H83" t="n">
+        <v>3.695358420211645</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>0</v>
+      </c>
+      <c r="R83" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="S83" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="T83" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="U83" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2381,7 +6310,54 @@
       <c r="F84" t="n">
         <v>28</v>
       </c>
-      <c r="G84" t="inlineStr"/>
+      <c r="G84" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H84" t="n">
+        <v>3.695358420211645</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>0</v>
+      </c>
+      <c r="R84" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="S84" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="T84" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="U84" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2404,7 +6380,54 @@
       <c r="F85" t="n">
         <v>28</v>
       </c>
-      <c r="G85" t="inlineStr"/>
+      <c r="G85" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H85" t="n">
+        <v>3.695358420211645</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0</v>
+      </c>
+      <c r="P85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0</v>
+      </c>
+      <c r="R85" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="S85" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="T85" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="U85" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2427,7 +6450,54 @@
       <c r="F86" t="n">
         <v>28</v>
       </c>
-      <c r="G86" t="inlineStr"/>
+      <c r="G86" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H86" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0</v>
+      </c>
+      <c r="P86" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>0</v>
+      </c>
+      <c r="R86" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="S86" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="T86" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="U86" t="n">
+        <v>39.25999999999999</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2450,7 +6520,54 @@
       <c r="F87" t="n">
         <v>28</v>
       </c>
-      <c r="G87" t="inlineStr"/>
+      <c r="G87" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H87" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.7868326646372683</v>
+      </c>
+      <c r="K87" t="n">
+        <v>3.540959324037314</v>
+      </c>
+      <c r="L87" t="n">
+        <v>1.016374190431138</v>
+      </c>
+      <c r="M87" t="n">
+        <v>3.540959324037314</v>
+      </c>
+      <c r="N87" t="n">
+        <v>1.221672381425337</v>
+      </c>
+      <c r="O87" t="n">
+        <v>3.540959324037314</v>
+      </c>
+      <c r="P87" t="n">
+        <v>1.75539182505718</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>3.540959324037314</v>
+      </c>
+      <c r="R87" t="n">
+        <v>34.47428571428571</v>
+      </c>
+      <c r="S87" t="n">
+        <v>38.06357142857142</v>
+      </c>
+      <c r="T87" t="n">
+        <v>38.06357142857142</v>
+      </c>
+      <c r="U87" t="n">
+        <v>38.66178571428571</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2473,7 +6590,54 @@
       <c r="F88" t="n">
         <v>28</v>
       </c>
-      <c r="G88" t="inlineStr"/>
+      <c r="G88" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H88" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.7868326646372683</v>
+      </c>
+      <c r="K88" t="n">
+        <v>3.540959324037314</v>
+      </c>
+      <c r="L88" t="n">
+        <v>1.016374190431138</v>
+      </c>
+      <c r="M88" t="n">
+        <v>3.540959324037314</v>
+      </c>
+      <c r="N88" t="n">
+        <v>1.221672381425337</v>
+      </c>
+      <c r="O88" t="n">
+        <v>3.540959324037314</v>
+      </c>
+      <c r="P88" t="n">
+        <v>1.75539182505718</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>3.540959324037314</v>
+      </c>
+      <c r="R88" t="n">
+        <v>29.68857142857142</v>
+      </c>
+      <c r="S88" t="n">
+        <v>36.86714285714285</v>
+      </c>
+      <c r="T88" t="n">
+        <v>36.86714285714285</v>
+      </c>
+      <c r="U88" t="n">
+        <v>38.06357142857142</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2496,7 +6660,54 @@
       <c r="F89" t="n">
         <v>28</v>
       </c>
-      <c r="G89" t="inlineStr"/>
+      <c r="G89" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H89" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.7868326646372683</v>
+      </c>
+      <c r="K89" t="n">
+        <v>3.540959324037314</v>
+      </c>
+      <c r="L89" t="n">
+        <v>1.016374190431138</v>
+      </c>
+      <c r="M89" t="n">
+        <v>3.540959324037314</v>
+      </c>
+      <c r="N89" t="n">
+        <v>1.221672381425337</v>
+      </c>
+      <c r="O89" t="n">
+        <v>3.540959324037314</v>
+      </c>
+      <c r="P89" t="n">
+        <v>1.75539182505718</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>3.540959324037314</v>
+      </c>
+      <c r="R89" t="n">
+        <v>24.90285714285713</v>
+      </c>
+      <c r="S89" t="n">
+        <v>35.67071428571428</v>
+      </c>
+      <c r="T89" t="n">
+        <v>35.67071428571428</v>
+      </c>
+      <c r="U89" t="n">
+        <v>37.46535714285714</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2519,7 +6730,54 @@
       <c r="F90" t="n">
         <v>28</v>
       </c>
-      <c r="G90" t="inlineStr"/>
+      <c r="G90" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H90" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.7868326646372683</v>
+      </c>
+      <c r="K90" t="n">
+        <v>3.540959324037314</v>
+      </c>
+      <c r="L90" t="n">
+        <v>1.016374190431138</v>
+      </c>
+      <c r="M90" t="n">
+        <v>3.540959324037314</v>
+      </c>
+      <c r="N90" t="n">
+        <v>1.221672381425337</v>
+      </c>
+      <c r="O90" t="n">
+        <v>3.540959324037314</v>
+      </c>
+      <c r="P90" t="n">
+        <v>1.75539182505718</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>3.540959324037314</v>
+      </c>
+      <c r="R90" t="n">
+        <v>20.11714285714285</v>
+      </c>
+      <c r="S90" t="n">
+        <v>34.47428571428571</v>
+      </c>
+      <c r="T90" t="n">
+        <v>34.47428571428571</v>
+      </c>
+      <c r="U90" t="n">
+        <v>36.86714285714285</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2542,7 +6800,54 @@
       <c r="F91" t="n">
         <v>28</v>
       </c>
-      <c r="G91" t="inlineStr"/>
+      <c r="G91" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H91" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.7868326646372683</v>
+      </c>
+      <c r="K91" t="n">
+        <v>3.540959324037314</v>
+      </c>
+      <c r="L91" t="n">
+        <v>1.016374190431138</v>
+      </c>
+      <c r="M91" t="n">
+        <v>3.540959324037314</v>
+      </c>
+      <c r="N91" t="n">
+        <v>1.221672381425337</v>
+      </c>
+      <c r="O91" t="n">
+        <v>3.540959324037314</v>
+      </c>
+      <c r="P91" t="n">
+        <v>1.75539182505718</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>3.540959324037314</v>
+      </c>
+      <c r="R91" t="n">
+        <v>15.33142857142856</v>
+      </c>
+      <c r="S91" t="n">
+        <v>33.27785714285714</v>
+      </c>
+      <c r="T91" t="n">
+        <v>33.27785714285714</v>
+      </c>
+      <c r="U91" t="n">
+        <v>36.26892857142856</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2565,7 +6870,54 @@
       <c r="F92" t="n">
         <v>28</v>
       </c>
-      <c r="G92" t="inlineStr"/>
+      <c r="G92" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H92" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.7868326646372683</v>
+      </c>
+      <c r="K92" t="n">
+        <v>3.540959324037314</v>
+      </c>
+      <c r="L92" t="n">
+        <v>1.016374190431138</v>
+      </c>
+      <c r="M92" t="n">
+        <v>3.540959324037314</v>
+      </c>
+      <c r="N92" t="n">
+        <v>1.221672381425337</v>
+      </c>
+      <c r="O92" t="n">
+        <v>3.540959324037314</v>
+      </c>
+      <c r="P92" t="n">
+        <v>1.75539182505718</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>3.540959324037314</v>
+      </c>
+      <c r="R92" t="n">
+        <v>10.54571428571428</v>
+      </c>
+      <c r="S92" t="n">
+        <v>32.08142857142856</v>
+      </c>
+      <c r="T92" t="n">
+        <v>32.08142857142856</v>
+      </c>
+      <c r="U92" t="n">
+        <v>35.67071428571428</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2588,7 +6940,54 @@
       <c r="F93" t="n">
         <v>28</v>
       </c>
-      <c r="G93" t="inlineStr"/>
+      <c r="G93" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H93" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.7868326646372683</v>
+      </c>
+      <c r="K93" t="n">
+        <v>3.540959324037314</v>
+      </c>
+      <c r="L93" t="n">
+        <v>1.016374190431138</v>
+      </c>
+      <c r="M93" t="n">
+        <v>3.540959324037314</v>
+      </c>
+      <c r="N93" t="n">
+        <v>1.221672381425337</v>
+      </c>
+      <c r="O93" t="n">
+        <v>3.540959324037314</v>
+      </c>
+      <c r="P93" t="n">
+        <v>1.75539182505718</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>3.540959324037314</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S93" t="n">
+        <v>30.88499999999999</v>
+      </c>
+      <c r="T93" t="n">
+        <v>30.88499999999999</v>
+      </c>
+      <c r="U93" t="n">
+        <v>35.07249999999999</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2611,7 +7010,54 @@
       <c r="F94" t="n">
         <v>28</v>
       </c>
-      <c r="G94" t="inlineStr"/>
+      <c r="G94" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H94" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.7868326646372683</v>
+      </c>
+      <c r="K94" t="n">
+        <v>3.540959324037314</v>
+      </c>
+      <c r="L94" t="n">
+        <v>1.016374190431138</v>
+      </c>
+      <c r="M94" t="n">
+        <v>3.540959324037314</v>
+      </c>
+      <c r="N94" t="n">
+        <v>1.221672381425337</v>
+      </c>
+      <c r="O94" t="n">
+        <v>3.540959324037314</v>
+      </c>
+      <c r="P94" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>0</v>
+      </c>
+      <c r="R94" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S94" t="n">
+        <v>29.68857142857142</v>
+      </c>
+      <c r="T94" t="n">
+        <v>29.68857142857142</v>
+      </c>
+      <c r="U94" t="n">
+        <v>34.47428571428571</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2634,7 +7080,54 @@
       <c r="F95" t="n">
         <v>28</v>
       </c>
-      <c r="G95" t="inlineStr"/>
+      <c r="G95" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H95" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.7868326646372683</v>
+      </c>
+      <c r="K95" t="n">
+        <v>3.540959324037314</v>
+      </c>
+      <c r="L95" t="n">
+        <v>1.016374190431138</v>
+      </c>
+      <c r="M95" t="n">
+        <v>3.540959324037314</v>
+      </c>
+      <c r="N95" t="n">
+        <v>1.221672381425337</v>
+      </c>
+      <c r="O95" t="n">
+        <v>3.540959324037314</v>
+      </c>
+      <c r="P95" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>0</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S95" t="n">
+        <v>28.49214285714285</v>
+      </c>
+      <c r="T95" t="n">
+        <v>28.49214285714285</v>
+      </c>
+      <c r="U95" t="n">
+        <v>33.87607142857142</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -2657,7 +7150,54 @@
       <c r="F96" t="n">
         <v>28</v>
       </c>
-      <c r="G96" t="inlineStr"/>
+      <c r="G96" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H96" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.7868326646372683</v>
+      </c>
+      <c r="K96" t="n">
+        <v>3.540959324037314</v>
+      </c>
+      <c r="L96" t="n">
+        <v>1.016374190431138</v>
+      </c>
+      <c r="M96" t="n">
+        <v>3.540959324037314</v>
+      </c>
+      <c r="N96" t="n">
+        <v>1.221672381425337</v>
+      </c>
+      <c r="O96" t="n">
+        <v>3.540959324037314</v>
+      </c>
+      <c r="P96" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>0</v>
+      </c>
+      <c r="R96" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S96" t="n">
+        <v>27.29571428571428</v>
+      </c>
+      <c r="T96" t="n">
+        <v>27.29571428571428</v>
+      </c>
+      <c r="U96" t="n">
+        <v>33.27785714285714</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -2680,7 +7220,54 @@
       <c r="F97" t="n">
         <v>28</v>
       </c>
-      <c r="G97" t="inlineStr"/>
+      <c r="G97" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H97" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.7868326646372683</v>
+      </c>
+      <c r="K97" t="n">
+        <v>3.540959324037314</v>
+      </c>
+      <c r="L97" t="n">
+        <v>1.016374190431138</v>
+      </c>
+      <c r="M97" t="n">
+        <v>3.540959324037314</v>
+      </c>
+      <c r="N97" t="n">
+        <v>1.221672381425337</v>
+      </c>
+      <c r="O97" t="n">
+        <v>3.540959324037314</v>
+      </c>
+      <c r="P97" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>0</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S97" t="n">
+        <v>26.09928571428571</v>
+      </c>
+      <c r="T97" t="n">
+        <v>26.09928571428571</v>
+      </c>
+      <c r="U97" t="n">
+        <v>32.67964285714285</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -2703,7 +7290,54 @@
       <c r="F98" t="n">
         <v>28</v>
       </c>
-      <c r="G98" t="inlineStr"/>
+      <c r="G98" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H98" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.7868326646372683</v>
+      </c>
+      <c r="K98" t="n">
+        <v>3.540959324037314</v>
+      </c>
+      <c r="L98" t="n">
+        <v>1.016374190431138</v>
+      </c>
+      <c r="M98" t="n">
+        <v>3.540959324037314</v>
+      </c>
+      <c r="N98" t="n">
+        <v>1.221672381425337</v>
+      </c>
+      <c r="O98" t="n">
+        <v>3.540959324037314</v>
+      </c>
+      <c r="P98" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>0</v>
+      </c>
+      <c r="R98" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S98" t="n">
+        <v>24.90285714285713</v>
+      </c>
+      <c r="T98" t="n">
+        <v>24.90285714285713</v>
+      </c>
+      <c r="U98" t="n">
+        <v>32.08142857142856</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -2726,7 +7360,54 @@
       <c r="F99" t="n">
         <v>28</v>
       </c>
-      <c r="G99" t="inlineStr"/>
+      <c r="G99" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H99" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.7868326646372683</v>
+      </c>
+      <c r="K99" t="n">
+        <v>3.540959324037314</v>
+      </c>
+      <c r="L99" t="n">
+        <v>1.016374190431138</v>
+      </c>
+      <c r="M99" t="n">
+        <v>3.540959324037314</v>
+      </c>
+      <c r="N99" t="n">
+        <v>1.221672381425337</v>
+      </c>
+      <c r="O99" t="n">
+        <v>3.540959324037314</v>
+      </c>
+      <c r="P99" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>0</v>
+      </c>
+      <c r="R99" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S99" t="n">
+        <v>23.70642857142856</v>
+      </c>
+      <c r="T99" t="n">
+        <v>23.70642857142856</v>
+      </c>
+      <c r="U99" t="n">
+        <v>31.48321428571428</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -2749,7 +7430,54 @@
       <c r="F100" t="n">
         <v>28</v>
       </c>
-      <c r="G100" t="inlineStr"/>
+      <c r="G100" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H100" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.7868326646372683</v>
+      </c>
+      <c r="K100" t="n">
+        <v>3.540959324037314</v>
+      </c>
+      <c r="L100" t="n">
+        <v>1.016374190431138</v>
+      </c>
+      <c r="M100" t="n">
+        <v>3.540959324037314</v>
+      </c>
+      <c r="N100" t="n">
+        <v>1.221672381425337</v>
+      </c>
+      <c r="O100" t="n">
+        <v>3.540959324037314</v>
+      </c>
+      <c r="P100" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>0</v>
+      </c>
+      <c r="R100" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S100" t="n">
+        <v>22.50999999999999</v>
+      </c>
+      <c r="T100" t="n">
+        <v>22.50999999999999</v>
+      </c>
+      <c r="U100" t="n">
+        <v>30.88499999999999</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -2772,7 +7500,54 @@
       <c r="F101" t="n">
         <v>28</v>
       </c>
-      <c r="G101" t="inlineStr"/>
+      <c r="G101" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H101" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.7868326646372683</v>
+      </c>
+      <c r="K101" t="n">
+        <v>3.540959324037314</v>
+      </c>
+      <c r="L101" t="n">
+        <v>1.016374190431138</v>
+      </c>
+      <c r="M101" t="n">
+        <v>3.540959324037314</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0</v>
+      </c>
+      <c r="O101" t="n">
+        <v>0</v>
+      </c>
+      <c r="P101" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>0</v>
+      </c>
+      <c r="R101" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S101" t="n">
+        <v>21.31357142857142</v>
+      </c>
+      <c r="T101" t="n">
+        <v>21.31357142857142</v>
+      </c>
+      <c r="U101" t="n">
+        <v>30.28678571428571</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -2795,7 +7570,54 @@
       <c r="F102" t="n">
         <v>28</v>
       </c>
-      <c r="G102" t="inlineStr"/>
+      <c r="G102" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H102" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.7868326646372683</v>
+      </c>
+      <c r="K102" t="n">
+        <v>3.540959324037314</v>
+      </c>
+      <c r="L102" t="n">
+        <v>1.016374190431138</v>
+      </c>
+      <c r="M102" t="n">
+        <v>3.540959324037314</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0</v>
+      </c>
+      <c r="O102" t="n">
+        <v>0</v>
+      </c>
+      <c r="P102" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>0</v>
+      </c>
+      <c r="R102" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S102" t="n">
+        <v>20.11714285714285</v>
+      </c>
+      <c r="T102" t="n">
+        <v>20.11714285714285</v>
+      </c>
+      <c r="U102" t="n">
+        <v>29.68857142857142</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -2818,7 +7640,54 @@
       <c r="F103" t="n">
         <v>28</v>
       </c>
-      <c r="G103" t="inlineStr"/>
+      <c r="G103" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H103" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.7868326646372683</v>
+      </c>
+      <c r="K103" t="n">
+        <v>3.540959324037314</v>
+      </c>
+      <c r="L103" t="n">
+        <v>1.016374190431138</v>
+      </c>
+      <c r="M103" t="n">
+        <v>3.540959324037314</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0</v>
+      </c>
+      <c r="O103" t="n">
+        <v>0</v>
+      </c>
+      <c r="P103" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>0</v>
+      </c>
+      <c r="R103" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S103" t="n">
+        <v>18.92071428571428</v>
+      </c>
+      <c r="T103" t="n">
+        <v>18.92071428571428</v>
+      </c>
+      <c r="U103" t="n">
+        <v>29.09035714285713</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -2841,7 +7710,54 @@
       <c r="F104" t="n">
         <v>28</v>
       </c>
-      <c r="G104" t="inlineStr"/>
+      <c r="G104" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H104" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.7868326646372683</v>
+      </c>
+      <c r="K104" t="n">
+        <v>3.540959324037314</v>
+      </c>
+      <c r="L104" t="n">
+        <v>1.016374190431138</v>
+      </c>
+      <c r="M104" t="n">
+        <v>3.540959324037314</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0</v>
+      </c>
+      <c r="O104" t="n">
+        <v>0</v>
+      </c>
+      <c r="P104" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>0</v>
+      </c>
+      <c r="R104" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S104" t="n">
+        <v>17.72428571428571</v>
+      </c>
+      <c r="T104" t="n">
+        <v>17.72428571428571</v>
+      </c>
+      <c r="U104" t="n">
+        <v>28.49214285714285</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -2864,7 +7780,54 @@
       <c r="F105" t="n">
         <v>28</v>
       </c>
-      <c r="G105" t="inlineStr"/>
+      <c r="G105" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H105" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.7868326646372683</v>
+      </c>
+      <c r="K105" t="n">
+        <v>3.540959324037314</v>
+      </c>
+      <c r="L105" t="n">
+        <v>1.016374190431138</v>
+      </c>
+      <c r="M105" t="n">
+        <v>3.540959324037314</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0</v>
+      </c>
+      <c r="O105" t="n">
+        <v>0</v>
+      </c>
+      <c r="P105" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>0</v>
+      </c>
+      <c r="R105" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S105" t="n">
+        <v>16.52785714285713</v>
+      </c>
+      <c r="T105" t="n">
+        <v>16.52785714285713</v>
+      </c>
+      <c r="U105" t="n">
+        <v>27.89392857142856</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -2887,7 +7850,54 @@
       <c r="F106" t="n">
         <v>28</v>
       </c>
-      <c r="G106" t="inlineStr"/>
+      <c r="G106" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H106" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.7868326646372683</v>
+      </c>
+      <c r="K106" t="n">
+        <v>3.540959324037314</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0</v>
+      </c>
+      <c r="O106" t="n">
+        <v>0</v>
+      </c>
+      <c r="P106" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>0</v>
+      </c>
+      <c r="R106" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S106" t="n">
+        <v>15.33142857142856</v>
+      </c>
+      <c r="T106" t="n">
+        <v>15.33142857142856</v>
+      </c>
+      <c r="U106" t="n">
+        <v>27.29571428571428</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -2910,7 +7920,54 @@
       <c r="F107" t="n">
         <v>28</v>
       </c>
-      <c r="G107" t="inlineStr"/>
+      <c r="G107" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H107" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.7868326646372683</v>
+      </c>
+      <c r="K107" t="n">
+        <v>3.540959324037314</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0</v>
+      </c>
+      <c r="O107" t="n">
+        <v>0</v>
+      </c>
+      <c r="P107" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>0</v>
+      </c>
+      <c r="R107" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S107" t="n">
+        <v>14.13499999999999</v>
+      </c>
+      <c r="T107" t="n">
+        <v>14.13499999999999</v>
+      </c>
+      <c r="U107" t="n">
+        <v>26.69749999999999</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -2933,7 +7990,54 @@
       <c r="F108" t="n">
         <v>28</v>
       </c>
-      <c r="G108" t="inlineStr"/>
+      <c r="G108" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H108" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.7868326646372683</v>
+      </c>
+      <c r="K108" t="n">
+        <v>3.540959324037314</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0</v>
+      </c>
+      <c r="O108" t="n">
+        <v>0</v>
+      </c>
+      <c r="P108" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>0</v>
+      </c>
+      <c r="R108" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S108" t="n">
+        <v>12.93857142857142</v>
+      </c>
+      <c r="T108" t="n">
+        <v>12.93857142857142</v>
+      </c>
+      <c r="U108" t="n">
+        <v>26.09928571428571</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -2956,7 +8060,54 @@
       <c r="F109" t="n">
         <v>28</v>
       </c>
-      <c r="G109" t="inlineStr"/>
+      <c r="G109" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H109" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.7868326646372683</v>
+      </c>
+      <c r="K109" t="n">
+        <v>3.540959324037314</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0</v>
+      </c>
+      <c r="O109" t="n">
+        <v>0</v>
+      </c>
+      <c r="P109" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>0</v>
+      </c>
+      <c r="R109" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S109" t="n">
+        <v>11.74214285714285</v>
+      </c>
+      <c r="T109" t="n">
+        <v>11.74214285714285</v>
+      </c>
+      <c r="U109" t="n">
+        <v>25.50107142857142</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -2979,7 +8130,54 @@
       <c r="F110" t="n">
         <v>28</v>
       </c>
-      <c r="G110" t="inlineStr"/>
+      <c r="G110" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H110" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.7868326646372683</v>
+      </c>
+      <c r="K110" t="n">
+        <v>3.540959324037314</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0</v>
+      </c>
+      <c r="O110" t="n">
+        <v>0</v>
+      </c>
+      <c r="P110" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>0</v>
+      </c>
+      <c r="R110" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S110" t="n">
+        <v>10.54571428571428</v>
+      </c>
+      <c r="T110" t="n">
+        <v>10.54571428571428</v>
+      </c>
+      <c r="U110" t="n">
+        <v>24.90285714285713</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -3002,7 +8200,54 @@
       <c r="F111" t="n">
         <v>28</v>
       </c>
-      <c r="G111" t="inlineStr"/>
+      <c r="G111" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H111" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.7868326646372683</v>
+      </c>
+      <c r="K111" t="n">
+        <v>3.540959324037314</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0</v>
+      </c>
+      <c r="O111" t="n">
+        <v>0</v>
+      </c>
+      <c r="P111" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>0</v>
+      </c>
+      <c r="R111" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S111" t="n">
+        <v>9.349285714285704</v>
+      </c>
+      <c r="T111" t="n">
+        <v>9.349285714285704</v>
+      </c>
+      <c r="U111" t="n">
+        <v>24.30464285714285</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -3025,7 +8270,54 @@
       <c r="F112" t="n">
         <v>28</v>
       </c>
-      <c r="G112" t="inlineStr"/>
+      <c r="G112" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H112" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.7868326646372683</v>
+      </c>
+      <c r="K112" t="n">
+        <v>3.540959324037314</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0</v>
+      </c>
+      <c r="O112" t="n">
+        <v>0</v>
+      </c>
+      <c r="P112" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>0</v>
+      </c>
+      <c r="R112" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S112" t="n">
+        <v>8.152857142857133</v>
+      </c>
+      <c r="T112" t="n">
+        <v>8.152857142857133</v>
+      </c>
+      <c r="U112" t="n">
+        <v>23.70642857142856</v>
+      </c>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -3048,7 +8340,54 @@
       <c r="F113" t="n">
         <v>28</v>
       </c>
-      <c r="G113" t="inlineStr"/>
+      <c r="G113" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H113" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.7868326646372683</v>
+      </c>
+      <c r="K113" t="n">
+        <v>3.540959324037314</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0</v>
+      </c>
+      <c r="O113" t="n">
+        <v>0</v>
+      </c>
+      <c r="P113" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>0</v>
+      </c>
+      <c r="R113" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S113" t="n">
+        <v>6.956428571428562</v>
+      </c>
+      <c r="T113" t="n">
+        <v>6.956428571428562</v>
+      </c>
+      <c r="U113" t="n">
+        <v>23.10821428571428</v>
+      </c>
+      <c r="V113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -3071,7 +8410,54 @@
       <c r="F114" t="n">
         <v>28</v>
       </c>
-      <c r="G114" t="inlineStr"/>
+      <c r="G114" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H114" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.7868326646372683</v>
+      </c>
+      <c r="K114" t="n">
+        <v>3.540959324037314</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0</v>
+      </c>
+      <c r="O114" t="n">
+        <v>0</v>
+      </c>
+      <c r="P114" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>0</v>
+      </c>
+      <c r="R114" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S114" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="T114" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="U114" t="n">
+        <v>22.50999999999999</v>
+      </c>
+      <c r="V114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -3094,7 +8480,54 @@
       <c r="F115" t="n">
         <v>28</v>
       </c>
-      <c r="G115" t="inlineStr"/>
+      <c r="G115" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H115" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0</v>
+      </c>
+      <c r="O115" t="n">
+        <v>0</v>
+      </c>
+      <c r="P115" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>0</v>
+      </c>
+      <c r="R115" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S115" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="T115" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="U115" t="n">
+        <v>21.91178571428571</v>
+      </c>
+      <c r="V115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -3117,7 +8550,54 @@
       <c r="F116" t="n">
         <v>28</v>
       </c>
-      <c r="G116" t="inlineStr"/>
+      <c r="G116" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0</v>
+      </c>
+      <c r="O116" t="n">
+        <v>0</v>
+      </c>
+      <c r="P116" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>0</v>
+      </c>
+      <c r="R116" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S116" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="T116" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="U116" t="n">
+        <v>21.31357142857142</v>
+      </c>
+      <c r="V116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -3140,7 +8620,54 @@
       <c r="F117" t="n">
         <v>28</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H117" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0</v>
+      </c>
+      <c r="L117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0</v>
+      </c>
+      <c r="O117" t="n">
+        <v>0</v>
+      </c>
+      <c r="P117" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>0</v>
+      </c>
+      <c r="R117" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S117" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="T117" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="U117" t="n">
+        <v>20.71535714285713</v>
+      </c>
+      <c r="V117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -3163,7 +8690,54 @@
       <c r="F118" t="n">
         <v>28</v>
       </c>
-      <c r="G118" t="inlineStr"/>
+      <c r="G118" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H118" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0</v>
+      </c>
+      <c r="L118" t="n">
+        <v>0</v>
+      </c>
+      <c r="M118" t="n">
+        <v>0</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0</v>
+      </c>
+      <c r="O118" t="n">
+        <v>0</v>
+      </c>
+      <c r="P118" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>0</v>
+      </c>
+      <c r="R118" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S118" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="T118" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="U118" t="n">
+        <v>20.11714285714285</v>
+      </c>
+      <c r="V118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -3186,7 +8760,54 @@
       <c r="F119" t="n">
         <v>28</v>
       </c>
-      <c r="G119" t="inlineStr"/>
+      <c r="G119" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H119" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0</v>
+      </c>
+      <c r="O119" t="n">
+        <v>0</v>
+      </c>
+      <c r="P119" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>0</v>
+      </c>
+      <c r="R119" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S119" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="T119" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="U119" t="n">
+        <v>19.51892857142856</v>
+      </c>
+      <c r="V119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -3209,7 +8830,54 @@
       <c r="F120" t="n">
         <v>28</v>
       </c>
-      <c r="G120" t="inlineStr"/>
+      <c r="G120" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H120" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0</v>
+      </c>
+      <c r="M120" t="n">
+        <v>0</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" t="n">
+        <v>0</v>
+      </c>
+      <c r="P120" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>0</v>
+      </c>
+      <c r="R120" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S120" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="T120" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="U120" t="n">
+        <v>18.92071428571428</v>
+      </c>
+      <c r="V120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -3232,7 +8900,54 @@
       <c r="F121" t="n">
         <v>28</v>
       </c>
-      <c r="G121" t="inlineStr"/>
+      <c r="G121" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H121" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0</v>
+      </c>
+      <c r="M121" t="n">
+        <v>0</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0</v>
+      </c>
+      <c r="O121" t="n">
+        <v>0</v>
+      </c>
+      <c r="P121" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>0</v>
+      </c>
+      <c r="R121" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S121" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="T121" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="U121" t="n">
+        <v>18.32249999999999</v>
+      </c>
+      <c r="V121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -3255,7 +8970,54 @@
       <c r="F122" t="n">
         <v>28</v>
       </c>
-      <c r="G122" t="inlineStr"/>
+      <c r="G122" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H122" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0</v>
+      </c>
+      <c r="M122" t="n">
+        <v>0</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0</v>
+      </c>
+      <c r="O122" t="n">
+        <v>0</v>
+      </c>
+      <c r="P122" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>0</v>
+      </c>
+      <c r="R122" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S122" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="T122" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="U122" t="n">
+        <v>17.72428571428571</v>
+      </c>
+      <c r="V122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -3278,7 +9040,54 @@
       <c r="F123" t="n">
         <v>28</v>
       </c>
-      <c r="G123" t="inlineStr"/>
+      <c r="G123" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H123" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0</v>
+      </c>
+      <c r="N123" t="n">
+        <v>0</v>
+      </c>
+      <c r="O123" t="n">
+        <v>0</v>
+      </c>
+      <c r="P123" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>0</v>
+      </c>
+      <c r="R123" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S123" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="T123" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="U123" t="n">
+        <v>17.12607142857142</v>
+      </c>
+      <c r="V123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -3301,7 +9110,54 @@
       <c r="F124" t="n">
         <v>28</v>
       </c>
-      <c r="G124" t="inlineStr"/>
+      <c r="G124" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H124" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M124" t="n">
+        <v>0</v>
+      </c>
+      <c r="N124" t="n">
+        <v>0</v>
+      </c>
+      <c r="O124" t="n">
+        <v>0</v>
+      </c>
+      <c r="P124" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>0</v>
+      </c>
+      <c r="R124" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S124" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="T124" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="U124" t="n">
+        <v>16.52785714285713</v>
+      </c>
+      <c r="V124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -3324,7 +9180,54 @@
       <c r="F125" t="n">
         <v>28</v>
       </c>
-      <c r="G125" t="inlineStr"/>
+      <c r="G125" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H125" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N125" t="n">
+        <v>0</v>
+      </c>
+      <c r="O125" t="n">
+        <v>0</v>
+      </c>
+      <c r="P125" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>0</v>
+      </c>
+      <c r="R125" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S125" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="T125" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="U125" t="n">
+        <v>15.92964285714285</v>
+      </c>
+      <c r="V125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -3347,7 +9250,54 @@
       <c r="F126" t="n">
         <v>28</v>
       </c>
-      <c r="G126" t="inlineStr"/>
+      <c r="G126" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H126" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N126" t="n">
+        <v>0</v>
+      </c>
+      <c r="O126" t="n">
+        <v>0</v>
+      </c>
+      <c r="P126" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>0</v>
+      </c>
+      <c r="R126" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S126" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="T126" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="U126" t="n">
+        <v>15.33142857142856</v>
+      </c>
+      <c r="V126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -3370,7 +9320,54 @@
       <c r="F127" t="n">
         <v>28</v>
       </c>
-      <c r="G127" t="inlineStr"/>
+      <c r="G127" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H127" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M127" t="n">
+        <v>0</v>
+      </c>
+      <c r="N127" t="n">
+        <v>0</v>
+      </c>
+      <c r="O127" t="n">
+        <v>0</v>
+      </c>
+      <c r="P127" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>0</v>
+      </c>
+      <c r="R127" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S127" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="T127" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="U127" t="n">
+        <v>14.73321428571428</v>
+      </c>
+      <c r="V127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -3393,7 +9390,54 @@
       <c r="F128" t="n">
         <v>28</v>
       </c>
-      <c r="G128" t="inlineStr"/>
+      <c r="G128" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H128" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0</v>
+      </c>
+      <c r="M128" t="n">
+        <v>0</v>
+      </c>
+      <c r="N128" t="n">
+        <v>0</v>
+      </c>
+      <c r="O128" t="n">
+        <v>0</v>
+      </c>
+      <c r="P128" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>0</v>
+      </c>
+      <c r="R128" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S128" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="T128" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="U128" t="n">
+        <v>14.13499999999999</v>
+      </c>
+      <c r="V128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -3416,7 +9460,54 @@
       <c r="F129" t="n">
         <v>28</v>
       </c>
-      <c r="G129" t="inlineStr"/>
+      <c r="G129" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H129" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0</v>
+      </c>
+      <c r="M129" t="n">
+        <v>0</v>
+      </c>
+      <c r="N129" t="n">
+        <v>0</v>
+      </c>
+      <c r="O129" t="n">
+        <v>0</v>
+      </c>
+      <c r="P129" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>0</v>
+      </c>
+      <c r="R129" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S129" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="T129" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="U129" t="n">
+        <v>13.5367857142857</v>
+      </c>
+      <c r="V129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -3439,7 +9530,54 @@
       <c r="F130" t="n">
         <v>28</v>
       </c>
-      <c r="G130" t="inlineStr"/>
+      <c r="G130" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H130" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0</v>
+      </c>
+      <c r="M130" t="n">
+        <v>0</v>
+      </c>
+      <c r="N130" t="n">
+        <v>0</v>
+      </c>
+      <c r="O130" t="n">
+        <v>0</v>
+      </c>
+      <c r="P130" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>0</v>
+      </c>
+      <c r="R130" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S130" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="T130" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="U130" t="n">
+        <v>12.93857142857142</v>
+      </c>
+      <c r="V130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -3462,7 +9600,54 @@
       <c r="F131" t="n">
         <v>28</v>
       </c>
-      <c r="G131" t="inlineStr"/>
+      <c r="G131" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H131" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0</v>
+      </c>
+      <c r="M131" t="n">
+        <v>0</v>
+      </c>
+      <c r="N131" t="n">
+        <v>0</v>
+      </c>
+      <c r="O131" t="n">
+        <v>0</v>
+      </c>
+      <c r="P131" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q131" t="n">
+        <v>0</v>
+      </c>
+      <c r="R131" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S131" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="T131" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="U131" t="n">
+        <v>12.34035714285713</v>
+      </c>
+      <c r="V131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -3485,7 +9670,54 @@
       <c r="F132" t="n">
         <v>28</v>
       </c>
-      <c r="G132" t="inlineStr"/>
+      <c r="G132" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H132" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0</v>
+      </c>
+      <c r="M132" t="n">
+        <v>0</v>
+      </c>
+      <c r="N132" t="n">
+        <v>0</v>
+      </c>
+      <c r="O132" t="n">
+        <v>0</v>
+      </c>
+      <c r="P132" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q132" t="n">
+        <v>0</v>
+      </c>
+      <c r="R132" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S132" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="T132" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="U132" t="n">
+        <v>11.74214285714285</v>
+      </c>
+      <c r="V132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -3508,7 +9740,54 @@
       <c r="F133" t="n">
         <v>28</v>
       </c>
-      <c r="G133" t="inlineStr"/>
+      <c r="G133" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0</v>
+      </c>
+      <c r="M133" t="n">
+        <v>0</v>
+      </c>
+      <c r="N133" t="n">
+        <v>0</v>
+      </c>
+      <c r="O133" t="n">
+        <v>0</v>
+      </c>
+      <c r="P133" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q133" t="n">
+        <v>0</v>
+      </c>
+      <c r="R133" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S133" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="T133" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="U133" t="n">
+        <v>11.14392857142856</v>
+      </c>
+      <c r="V133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -3531,7 +9810,54 @@
       <c r="F134" t="n">
         <v>28</v>
       </c>
-      <c r="G134" t="inlineStr"/>
+      <c r="G134" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0</v>
+      </c>
+      <c r="L134" t="n">
+        <v>0</v>
+      </c>
+      <c r="M134" t="n">
+        <v>0</v>
+      </c>
+      <c r="N134" t="n">
+        <v>0</v>
+      </c>
+      <c r="O134" t="n">
+        <v>0</v>
+      </c>
+      <c r="P134" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q134" t="n">
+        <v>0</v>
+      </c>
+      <c r="R134" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S134" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="T134" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="U134" t="n">
+        <v>10.54571428571428</v>
+      </c>
+      <c r="V134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -3554,7 +9880,54 @@
       <c r="F135" t="n">
         <v>28</v>
       </c>
-      <c r="G135" t="inlineStr"/>
+      <c r="G135" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0</v>
+      </c>
+      <c r="L135" t="n">
+        <v>0</v>
+      </c>
+      <c r="M135" t="n">
+        <v>0</v>
+      </c>
+      <c r="N135" t="n">
+        <v>0</v>
+      </c>
+      <c r="O135" t="n">
+        <v>0</v>
+      </c>
+      <c r="P135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>0</v>
+      </c>
+      <c r="R135" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S135" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="T135" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="U135" t="n">
+        <v>9.947499999999991</v>
+      </c>
+      <c r="V135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -3577,7 +9950,54 @@
       <c r="F136" t="n">
         <v>28</v>
       </c>
-      <c r="G136" t="inlineStr"/>
+      <c r="G136" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0</v>
+      </c>
+      <c r="L136" t="n">
+        <v>0</v>
+      </c>
+      <c r="M136" t="n">
+        <v>0</v>
+      </c>
+      <c r="N136" t="n">
+        <v>0</v>
+      </c>
+      <c r="O136" t="n">
+        <v>0</v>
+      </c>
+      <c r="P136" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q136" t="n">
+        <v>0</v>
+      </c>
+      <c r="R136" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S136" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="T136" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="U136" t="n">
+        <v>9.349285714285704</v>
+      </c>
+      <c r="V136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -3600,7 +10020,54 @@
       <c r="F137" t="n">
         <v>28</v>
       </c>
-      <c r="G137" t="inlineStr"/>
+      <c r="G137" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H137" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0</v>
+      </c>
+      <c r="L137" t="n">
+        <v>0</v>
+      </c>
+      <c r="M137" t="n">
+        <v>0</v>
+      </c>
+      <c r="N137" t="n">
+        <v>0</v>
+      </c>
+      <c r="O137" t="n">
+        <v>0</v>
+      </c>
+      <c r="P137" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q137" t="n">
+        <v>0</v>
+      </c>
+      <c r="R137" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S137" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="T137" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="U137" t="n">
+        <v>8.75107142857142</v>
+      </c>
+      <c r="V137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -3623,7 +10090,54 @@
       <c r="F138" t="n">
         <v>28</v>
       </c>
-      <c r="G138" t="inlineStr"/>
+      <c r="G138" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H138" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0</v>
+      </c>
+      <c r="L138" t="n">
+        <v>0</v>
+      </c>
+      <c r="M138" t="n">
+        <v>0</v>
+      </c>
+      <c r="N138" t="n">
+        <v>0</v>
+      </c>
+      <c r="O138" t="n">
+        <v>0</v>
+      </c>
+      <c r="P138" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q138" t="n">
+        <v>0</v>
+      </c>
+      <c r="R138" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S138" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="T138" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="U138" t="n">
+        <v>8.152857142857133</v>
+      </c>
+      <c r="V138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -3646,7 +10160,54 @@
       <c r="F139" t="n">
         <v>28</v>
       </c>
-      <c r="G139" t="inlineStr"/>
+      <c r="G139" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0</v>
+      </c>
+      <c r="L139" t="n">
+        <v>0</v>
+      </c>
+      <c r="M139" t="n">
+        <v>0</v>
+      </c>
+      <c r="N139" t="n">
+        <v>0</v>
+      </c>
+      <c r="O139" t="n">
+        <v>0</v>
+      </c>
+      <c r="P139" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q139" t="n">
+        <v>0</v>
+      </c>
+      <c r="R139" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S139" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="T139" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="U139" t="n">
+        <v>7.554642857142848</v>
+      </c>
+      <c r="V139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -3669,7 +10230,54 @@
       <c r="F140" t="n">
         <v>28</v>
       </c>
-      <c r="G140" t="inlineStr"/>
+      <c r="G140" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0</v>
+      </c>
+      <c r="L140" t="n">
+        <v>0</v>
+      </c>
+      <c r="M140" t="n">
+        <v>0</v>
+      </c>
+      <c r="N140" t="n">
+        <v>0</v>
+      </c>
+      <c r="O140" t="n">
+        <v>0</v>
+      </c>
+      <c r="P140" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q140" t="n">
+        <v>0</v>
+      </c>
+      <c r="R140" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S140" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="T140" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="U140" t="n">
+        <v>6.956428571428562</v>
+      </c>
+      <c r="V140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -3692,7 +10300,54 @@
       <c r="F141" t="n">
         <v>28</v>
       </c>
-      <c r="G141" t="inlineStr"/>
+      <c r="G141" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H141" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0</v>
+      </c>
+      <c r="L141" t="n">
+        <v>0</v>
+      </c>
+      <c r="M141" t="n">
+        <v>0</v>
+      </c>
+      <c r="N141" t="n">
+        <v>0</v>
+      </c>
+      <c r="O141" t="n">
+        <v>0</v>
+      </c>
+      <c r="P141" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q141" t="n">
+        <v>0</v>
+      </c>
+      <c r="R141" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S141" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="T141" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="U141" t="n">
+        <v>6.358214285714276</v>
+      </c>
+      <c r="V141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -3715,7 +10370,54 @@
       <c r="F142" t="n">
         <v>28</v>
       </c>
-      <c r="G142" t="inlineStr"/>
+      <c r="G142" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="n">
+        <v>0</v>
+      </c>
+      <c r="L142" t="n">
+        <v>0</v>
+      </c>
+      <c r="M142" t="n">
+        <v>0</v>
+      </c>
+      <c r="N142" t="n">
+        <v>0</v>
+      </c>
+      <c r="O142" t="n">
+        <v>0</v>
+      </c>
+      <c r="P142" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q142" t="n">
+        <v>0</v>
+      </c>
+      <c r="R142" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S142" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="T142" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="U142" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="V142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -3738,7 +10440,54 @@
       <c r="F143" t="n">
         <v>28</v>
       </c>
-      <c r="G143" t="inlineStr"/>
+      <c r="G143" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="n">
+        <v>0</v>
+      </c>
+      <c r="L143" t="n">
+        <v>0</v>
+      </c>
+      <c r="M143" t="n">
+        <v>0</v>
+      </c>
+      <c r="N143" t="n">
+        <v>0</v>
+      </c>
+      <c r="O143" t="n">
+        <v>0</v>
+      </c>
+      <c r="P143" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q143" t="n">
+        <v>0</v>
+      </c>
+      <c r="R143" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S143" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="T143" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="U143" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="V143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -3761,7 +10510,54 @@
       <c r="F144" t="n">
         <v>28</v>
       </c>
-      <c r="G144" t="inlineStr"/>
+      <c r="G144" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H144" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0</v>
+      </c>
+      <c r="M144" t="n">
+        <v>0</v>
+      </c>
+      <c r="N144" t="n">
+        <v>0</v>
+      </c>
+      <c r="O144" t="n">
+        <v>0</v>
+      </c>
+      <c r="P144" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q144" t="n">
+        <v>0</v>
+      </c>
+      <c r="R144" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S144" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="T144" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="U144" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="V144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -3784,7 +10580,54 @@
       <c r="F145" t="n">
         <v>28</v>
       </c>
-      <c r="G145" t="inlineStr"/>
+      <c r="G145" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H145" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="n">
+        <v>0</v>
+      </c>
+      <c r="L145" t="n">
+        <v>0</v>
+      </c>
+      <c r="M145" t="n">
+        <v>0</v>
+      </c>
+      <c r="N145" t="n">
+        <v>0</v>
+      </c>
+      <c r="O145" t="n">
+        <v>0</v>
+      </c>
+      <c r="P145" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q145" t="n">
+        <v>0</v>
+      </c>
+      <c r="R145" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S145" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="T145" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="U145" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="V145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -3807,7 +10650,54 @@
       <c r="F146" t="n">
         <v>28</v>
       </c>
-      <c r="G146" t="inlineStr"/>
+      <c r="G146" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H146" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0</v>
+      </c>
+      <c r="L146" t="n">
+        <v>0</v>
+      </c>
+      <c r="M146" t="n">
+        <v>0</v>
+      </c>
+      <c r="N146" t="n">
+        <v>0</v>
+      </c>
+      <c r="O146" t="n">
+        <v>0</v>
+      </c>
+      <c r="P146" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q146" t="n">
+        <v>0</v>
+      </c>
+      <c r="R146" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S146" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="T146" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="U146" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="V146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -3830,7 +10720,54 @@
       <c r="F147" t="n">
         <v>28</v>
       </c>
-      <c r="G147" t="inlineStr"/>
+      <c r="G147" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H147" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="n">
+        <v>0</v>
+      </c>
+      <c r="L147" t="n">
+        <v>0</v>
+      </c>
+      <c r="M147" t="n">
+        <v>0</v>
+      </c>
+      <c r="N147" t="n">
+        <v>0</v>
+      </c>
+      <c r="O147" t="n">
+        <v>0</v>
+      </c>
+      <c r="P147" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q147" t="n">
+        <v>0</v>
+      </c>
+      <c r="R147" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S147" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="T147" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="U147" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="V147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -3853,7 +10790,54 @@
       <c r="F148" t="n">
         <v>28</v>
       </c>
-      <c r="G148" t="inlineStr"/>
+      <c r="G148" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H148" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M148" t="n">
+        <v>0</v>
+      </c>
+      <c r="N148" t="n">
+        <v>0</v>
+      </c>
+      <c r="O148" t="n">
+        <v>0</v>
+      </c>
+      <c r="P148" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q148" t="n">
+        <v>0</v>
+      </c>
+      <c r="R148" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S148" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="T148" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="U148" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="V148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -3876,7 +10860,54 @@
       <c r="F149" t="n">
         <v>28</v>
       </c>
-      <c r="G149" t="inlineStr"/>
+      <c r="G149" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H149" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N149" t="n">
+        <v>0</v>
+      </c>
+      <c r="O149" t="n">
+        <v>0</v>
+      </c>
+      <c r="P149" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q149" t="n">
+        <v>0</v>
+      </c>
+      <c r="R149" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S149" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="T149" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="U149" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="V149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -3899,7 +10930,54 @@
       <c r="F150" t="n">
         <v>28</v>
       </c>
-      <c r="G150" t="inlineStr"/>
+      <c r="G150" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H150" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="n">
+        <v>0</v>
+      </c>
+      <c r="L150" t="n">
+        <v>0</v>
+      </c>
+      <c r="M150" t="n">
+        <v>0</v>
+      </c>
+      <c r="N150" t="n">
+        <v>0</v>
+      </c>
+      <c r="O150" t="n">
+        <v>0</v>
+      </c>
+      <c r="P150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q150" t="n">
+        <v>0</v>
+      </c>
+      <c r="R150" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S150" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="T150" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="U150" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="V150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -3922,7 +11000,54 @@
       <c r="F151" t="n">
         <v>28</v>
       </c>
-      <c r="G151" t="inlineStr"/>
+      <c r="G151" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H151" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="n">
+        <v>0</v>
+      </c>
+      <c r="L151" t="n">
+        <v>0</v>
+      </c>
+      <c r="M151" t="n">
+        <v>0</v>
+      </c>
+      <c r="N151" t="n">
+        <v>0</v>
+      </c>
+      <c r="O151" t="n">
+        <v>0</v>
+      </c>
+      <c r="P151" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q151" t="n">
+        <v>0</v>
+      </c>
+      <c r="R151" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S151" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="T151" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="U151" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="V151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -3945,7 +11070,54 @@
       <c r="F152" t="n">
         <v>28</v>
       </c>
-      <c r="G152" t="inlineStr"/>
+      <c r="G152" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H152" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="n">
+        <v>0</v>
+      </c>
+      <c r="L152" t="n">
+        <v>0</v>
+      </c>
+      <c r="M152" t="n">
+        <v>0</v>
+      </c>
+      <c r="N152" t="n">
+        <v>0</v>
+      </c>
+      <c r="O152" t="n">
+        <v>0</v>
+      </c>
+      <c r="P152" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q152" t="n">
+        <v>0</v>
+      </c>
+      <c r="R152" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S152" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="T152" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="U152" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="V152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -3968,7 +11140,54 @@
       <c r="F153" t="n">
         <v>28</v>
       </c>
-      <c r="G153" t="inlineStr"/>
+      <c r="G153" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H153" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L153" t="n">
+        <v>0</v>
+      </c>
+      <c r="M153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N153" t="n">
+        <v>0</v>
+      </c>
+      <c r="O153" t="n">
+        <v>0</v>
+      </c>
+      <c r="P153" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q153" t="n">
+        <v>0</v>
+      </c>
+      <c r="R153" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S153" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="T153" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="U153" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="V153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -3991,7 +11210,54 @@
       <c r="F154" t="n">
         <v>28</v>
       </c>
-      <c r="G154" t="inlineStr"/>
+      <c r="G154" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H154" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="n">
+        <v>0</v>
+      </c>
+      <c r="L154" t="n">
+        <v>0</v>
+      </c>
+      <c r="M154" t="n">
+        <v>0</v>
+      </c>
+      <c r="N154" t="n">
+        <v>0</v>
+      </c>
+      <c r="O154" t="n">
+        <v>0</v>
+      </c>
+      <c r="P154" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q154" t="n">
+        <v>0</v>
+      </c>
+      <c r="R154" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S154" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="T154" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="U154" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="V154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -4014,7 +11280,54 @@
       <c r="F155" t="n">
         <v>28</v>
       </c>
-      <c r="G155" t="inlineStr"/>
+      <c r="G155" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H155" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L155" t="n">
+        <v>0</v>
+      </c>
+      <c r="M155" t="n">
+        <v>0</v>
+      </c>
+      <c r="N155" t="n">
+        <v>0</v>
+      </c>
+      <c r="O155" t="n">
+        <v>0</v>
+      </c>
+      <c r="P155" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q155" t="n">
+        <v>0</v>
+      </c>
+      <c r="R155" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S155" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="T155" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="U155" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="V155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -4037,7 +11350,54 @@
       <c r="F156" t="n">
         <v>28</v>
       </c>
-      <c r="G156" t="inlineStr"/>
+      <c r="G156" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H156" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="n">
+        <v>0</v>
+      </c>
+      <c r="L156" t="n">
+        <v>0</v>
+      </c>
+      <c r="M156" t="n">
+        <v>0</v>
+      </c>
+      <c r="N156" t="n">
+        <v>0</v>
+      </c>
+      <c r="O156" t="n">
+        <v>0</v>
+      </c>
+      <c r="P156" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q156" t="n">
+        <v>0</v>
+      </c>
+      <c r="R156" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S156" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="T156" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="U156" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="V156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -4060,7 +11420,54 @@
       <c r="F157" t="n">
         <v>28</v>
       </c>
-      <c r="G157" t="inlineStr"/>
+      <c r="G157" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H157" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L157" t="n">
+        <v>0</v>
+      </c>
+      <c r="M157" t="n">
+        <v>0</v>
+      </c>
+      <c r="N157" t="n">
+        <v>0</v>
+      </c>
+      <c r="O157" t="n">
+        <v>0</v>
+      </c>
+      <c r="P157" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q157" t="n">
+        <v>0</v>
+      </c>
+      <c r="R157" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S157" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="T157" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="U157" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="V157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -4083,7 +11490,54 @@
       <c r="F158" t="n">
         <v>28</v>
       </c>
-      <c r="G158" t="inlineStr"/>
+      <c r="G158" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H158" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="n">
+        <v>0</v>
+      </c>
+      <c r="L158" t="n">
+        <v>0</v>
+      </c>
+      <c r="M158" t="n">
+        <v>0</v>
+      </c>
+      <c r="N158" t="n">
+        <v>0</v>
+      </c>
+      <c r="O158" t="n">
+        <v>0</v>
+      </c>
+      <c r="P158" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q158" t="n">
+        <v>0</v>
+      </c>
+      <c r="R158" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S158" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="T158" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="U158" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="V158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -4106,7 +11560,54 @@
       <c r="F159" t="n">
         <v>28</v>
       </c>
-      <c r="G159" t="inlineStr"/>
+      <c r="G159" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H159" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="n">
+        <v>0</v>
+      </c>
+      <c r="L159" t="n">
+        <v>0</v>
+      </c>
+      <c r="M159" t="n">
+        <v>0</v>
+      </c>
+      <c r="N159" t="n">
+        <v>0</v>
+      </c>
+      <c r="O159" t="n">
+        <v>0</v>
+      </c>
+      <c r="P159" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q159" t="n">
+        <v>0</v>
+      </c>
+      <c r="R159" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S159" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="T159" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="U159" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="V159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -4129,7 +11630,54 @@
       <c r="F160" t="n">
         <v>28</v>
       </c>
-      <c r="G160" t="inlineStr"/>
+      <c r="G160" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H160" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="n">
+        <v>0</v>
+      </c>
+      <c r="L160" t="n">
+        <v>0</v>
+      </c>
+      <c r="M160" t="n">
+        <v>0</v>
+      </c>
+      <c r="N160" t="n">
+        <v>0</v>
+      </c>
+      <c r="O160" t="n">
+        <v>0</v>
+      </c>
+      <c r="P160" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q160" t="n">
+        <v>0</v>
+      </c>
+      <c r="R160" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S160" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="T160" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="U160" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="V160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -4152,7 +11700,54 @@
       <c r="F161" t="n">
         <v>28</v>
       </c>
-      <c r="G161" t="inlineStr"/>
+      <c r="G161" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H161" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="n">
+        <v>0</v>
+      </c>
+      <c r="L161" t="n">
+        <v>0</v>
+      </c>
+      <c r="M161" t="n">
+        <v>0</v>
+      </c>
+      <c r="N161" t="n">
+        <v>0</v>
+      </c>
+      <c r="O161" t="n">
+        <v>0</v>
+      </c>
+      <c r="P161" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q161" t="n">
+        <v>0</v>
+      </c>
+      <c r="R161" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S161" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="T161" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="U161" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="V161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -4175,7 +11770,54 @@
       <c r="F162" t="n">
         <v>28</v>
       </c>
-      <c r="G162" t="inlineStr"/>
+      <c r="G162" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H162" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L162" t="n">
+        <v>0</v>
+      </c>
+      <c r="M162" t="n">
+        <v>0</v>
+      </c>
+      <c r="N162" t="n">
+        <v>0</v>
+      </c>
+      <c r="O162" t="n">
+        <v>0</v>
+      </c>
+      <c r="P162" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q162" t="n">
+        <v>0</v>
+      </c>
+      <c r="R162" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S162" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="T162" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="U162" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="V162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -4198,7 +11840,54 @@
       <c r="F163" t="n">
         <v>28</v>
       </c>
-      <c r="G163" t="inlineStr"/>
+      <c r="G163" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H163" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="n">
+        <v>0</v>
+      </c>
+      <c r="L163" t="n">
+        <v>0</v>
+      </c>
+      <c r="M163" t="n">
+        <v>0</v>
+      </c>
+      <c r="N163" t="n">
+        <v>0</v>
+      </c>
+      <c r="O163" t="n">
+        <v>0</v>
+      </c>
+      <c r="P163" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q163" t="n">
+        <v>0</v>
+      </c>
+      <c r="R163" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S163" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="T163" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="U163" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="V163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -4221,7 +11910,54 @@
       <c r="F164" t="n">
         <v>28</v>
       </c>
-      <c r="G164" t="inlineStr"/>
+      <c r="G164" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H164" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="n">
+        <v>0</v>
+      </c>
+      <c r="L164" t="n">
+        <v>0</v>
+      </c>
+      <c r="M164" t="n">
+        <v>0</v>
+      </c>
+      <c r="N164" t="n">
+        <v>0</v>
+      </c>
+      <c r="O164" t="n">
+        <v>0</v>
+      </c>
+      <c r="P164" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q164" t="n">
+        <v>0</v>
+      </c>
+      <c r="R164" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S164" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="T164" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="U164" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="V164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -4244,7 +11980,54 @@
       <c r="F165" t="n">
         <v>28</v>
       </c>
-      <c r="G165" t="inlineStr"/>
+      <c r="G165" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H165" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="n">
+        <v>0</v>
+      </c>
+      <c r="L165" t="n">
+        <v>0</v>
+      </c>
+      <c r="M165" t="n">
+        <v>0</v>
+      </c>
+      <c r="N165" t="n">
+        <v>0</v>
+      </c>
+      <c r="O165" t="n">
+        <v>0</v>
+      </c>
+      <c r="P165" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q165" t="n">
+        <v>0</v>
+      </c>
+      <c r="R165" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S165" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="T165" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="U165" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="V165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -4267,7 +12050,54 @@
       <c r="F166" t="n">
         <v>28</v>
       </c>
-      <c r="G166" t="inlineStr"/>
+      <c r="G166" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H166" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="n">
+        <v>0</v>
+      </c>
+      <c r="L166" t="n">
+        <v>0</v>
+      </c>
+      <c r="M166" t="n">
+        <v>0</v>
+      </c>
+      <c r="N166" t="n">
+        <v>0</v>
+      </c>
+      <c r="O166" t="n">
+        <v>0</v>
+      </c>
+      <c r="P166" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q166" t="n">
+        <v>0</v>
+      </c>
+      <c r="R166" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S166" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="T166" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="U166" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="V166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -4290,7 +12120,54 @@
       <c r="F167" t="n">
         <v>28</v>
       </c>
-      <c r="G167" t="inlineStr"/>
+      <c r="G167" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H167" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="n">
+        <v>0</v>
+      </c>
+      <c r="L167" t="n">
+        <v>0</v>
+      </c>
+      <c r="M167" t="n">
+        <v>0</v>
+      </c>
+      <c r="N167" t="n">
+        <v>0</v>
+      </c>
+      <c r="O167" t="n">
+        <v>0</v>
+      </c>
+      <c r="P167" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q167" t="n">
+        <v>0</v>
+      </c>
+      <c r="R167" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S167" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="T167" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="U167" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="V167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -4313,7 +12190,54 @@
       <c r="F168" t="n">
         <v>28</v>
       </c>
-      <c r="G168" t="inlineStr"/>
+      <c r="G168" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H168" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="n">
+        <v>0</v>
+      </c>
+      <c r="L168" t="n">
+        <v>0</v>
+      </c>
+      <c r="M168" t="n">
+        <v>0</v>
+      </c>
+      <c r="N168" t="n">
+        <v>0</v>
+      </c>
+      <c r="O168" t="n">
+        <v>0</v>
+      </c>
+      <c r="P168" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q168" t="n">
+        <v>0</v>
+      </c>
+      <c r="R168" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S168" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="T168" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="U168" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="V168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -4336,7 +12260,54 @@
       <c r="F169" t="n">
         <v>28</v>
       </c>
-      <c r="G169" t="inlineStr"/>
+      <c r="G169" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H169" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="n">
+        <v>0</v>
+      </c>
+      <c r="L169" t="n">
+        <v>0</v>
+      </c>
+      <c r="M169" t="n">
+        <v>0</v>
+      </c>
+      <c r="N169" t="n">
+        <v>0</v>
+      </c>
+      <c r="O169" t="n">
+        <v>0</v>
+      </c>
+      <c r="P169" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q169" t="n">
+        <v>0</v>
+      </c>
+      <c r="R169" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S169" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="T169" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="U169" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="V169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -4359,7 +12330,54 @@
       <c r="F170" t="n">
         <v>28</v>
       </c>
-      <c r="G170" t="inlineStr"/>
+      <c r="G170" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H170" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="n">
+        <v>0</v>
+      </c>
+      <c r="L170" t="n">
+        <v>0</v>
+      </c>
+      <c r="M170" t="n">
+        <v>0</v>
+      </c>
+      <c r="N170" t="n">
+        <v>0</v>
+      </c>
+      <c r="O170" t="n">
+        <v>0</v>
+      </c>
+      <c r="P170" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q170" t="n">
+        <v>0</v>
+      </c>
+      <c r="R170" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S170" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="T170" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="U170" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="V170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -4382,7 +12400,54 @@
       <c r="F171" t="n">
         <v>28</v>
       </c>
-      <c r="G171" t="inlineStr"/>
+      <c r="G171" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H171" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="n">
+        <v>0</v>
+      </c>
+      <c r="L171" t="n">
+        <v>0</v>
+      </c>
+      <c r="M171" t="n">
+        <v>0</v>
+      </c>
+      <c r="N171" t="n">
+        <v>0</v>
+      </c>
+      <c r="O171" t="n">
+        <v>0</v>
+      </c>
+      <c r="P171" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q171" t="n">
+        <v>0</v>
+      </c>
+      <c r="R171" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S171" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="T171" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="U171" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="V171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -4405,7 +12470,54 @@
       <c r="F172" t="n">
         <v>28</v>
       </c>
-      <c r="G172" t="inlineStr"/>
+      <c r="G172" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H172" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="n">
+        <v>0</v>
+      </c>
+      <c r="L172" t="n">
+        <v>0</v>
+      </c>
+      <c r="M172" t="n">
+        <v>0</v>
+      </c>
+      <c r="N172" t="n">
+        <v>0</v>
+      </c>
+      <c r="O172" t="n">
+        <v>0</v>
+      </c>
+      <c r="P172" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q172" t="n">
+        <v>0</v>
+      </c>
+      <c r="R172" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S172" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="T172" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="U172" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="V172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -4428,7 +12540,54 @@
       <c r="F173" t="n">
         <v>28</v>
       </c>
-      <c r="G173" t="inlineStr"/>
+      <c r="G173" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H173" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="n">
+        <v>0</v>
+      </c>
+      <c r="L173" t="n">
+        <v>0</v>
+      </c>
+      <c r="M173" t="n">
+        <v>0</v>
+      </c>
+      <c r="N173" t="n">
+        <v>0</v>
+      </c>
+      <c r="O173" t="n">
+        <v>0</v>
+      </c>
+      <c r="P173" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q173" t="n">
+        <v>0</v>
+      </c>
+      <c r="R173" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S173" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="T173" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="U173" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="V173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -4451,7 +12610,54 @@
       <c r="F174" t="n">
         <v>28</v>
       </c>
-      <c r="G174" t="inlineStr"/>
+      <c r="G174" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H174" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="n">
+        <v>0</v>
+      </c>
+      <c r="L174" t="n">
+        <v>0</v>
+      </c>
+      <c r="M174" t="n">
+        <v>0</v>
+      </c>
+      <c r="N174" t="n">
+        <v>0</v>
+      </c>
+      <c r="O174" t="n">
+        <v>0</v>
+      </c>
+      <c r="P174" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q174" t="n">
+        <v>0</v>
+      </c>
+      <c r="R174" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S174" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="T174" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="U174" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="V174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -4474,7 +12680,54 @@
       <c r="F175" t="n">
         <v>28</v>
       </c>
-      <c r="G175" t="inlineStr"/>
+      <c r="G175" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H175" t="n">
+        <v>1.911022890054871</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="n">
+        <v>0</v>
+      </c>
+      <c r="L175" t="n">
+        <v>0</v>
+      </c>
+      <c r="M175" t="n">
+        <v>0</v>
+      </c>
+      <c r="N175" t="n">
+        <v>0</v>
+      </c>
+      <c r="O175" t="n">
+        <v>0</v>
+      </c>
+      <c r="P175" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q175" t="n">
+        <v>0</v>
+      </c>
+      <c r="R175" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S175" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="T175" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="U175" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="V175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -4497,7 +12750,54 @@
       <c r="F176" t="n">
         <v>28</v>
       </c>
-      <c r="G176" t="inlineStr"/>
+      <c r="G176" t="n">
+        <v>1.267803</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="n">
+        <v>0</v>
+      </c>
+      <c r="L176" t="n">
+        <v>0</v>
+      </c>
+      <c r="M176" t="n">
+        <v>0</v>
+      </c>
+      <c r="N176" t="n">
+        <v>0</v>
+      </c>
+      <c r="O176" t="n">
+        <v>0</v>
+      </c>
+      <c r="P176" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q176" t="n">
+        <v>0</v>
+      </c>
+      <c r="R176" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="S176" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="T176" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="U176" t="n">
+        <v>5.759999999999991</v>
+      </c>
+      <c r="V176" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
